--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -3539,7 +3539,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>HuBMAP Display ID of the assayed tissue.</t>
+          <t>SenNet ID of the assayed tissue.</t>
         </r>
       </text>
     </comment>

--- a/docs/field-schemas.xlsx
+++ b/docs/field-schemas.xlsx
@@ -834,11 +834,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>The date when the mouse/embryo was born/fertilized. If the hours/minutes are not known, use '00:00'.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A65" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The date when the mouse/embryo died. If the hours/minutes are not known, use '00:00'.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A66" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Free-text description of this assay.</t>
         </r>
       </text>
     </comment>
-    <comment ref="A65" authorId="0">
+    <comment ref="A67" authorId="0">
       <text>
         <r>
           <rPr>
@@ -851,7 +877,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A66" authorId="0">
+    <comment ref="A68" authorId="0">
       <text>
         <r>
           <rPr>
@@ -864,7 +890,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A67" authorId="0">
+    <comment ref="A69" authorId="0">
       <text>
         <r>
           <rPr>
@@ -877,7 +903,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A68" authorId="0">
+    <comment ref="A70" authorId="0">
       <text>
         <r>
           <rPr>
@@ -890,7 +916,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A69" authorId="0">
+    <comment ref="A71" authorId="0">
       <text>
         <r>
           <rPr>
@@ -903,7 +929,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A70" authorId="0">
+    <comment ref="A72" authorId="0">
       <text>
         <r>
           <rPr>
@@ -916,7 +942,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A71" authorId="0">
+    <comment ref="A73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -929,7 +955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A72" authorId="0">
+    <comment ref="A74" authorId="0">
       <text>
         <r>
           <rPr>
@@ -942,7 +968,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A73" authorId="0">
+    <comment ref="A75" authorId="0">
       <text>
         <r>
           <rPr>
@@ -955,7 +981,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A74" authorId="0">
+    <comment ref="A76" authorId="0">
       <text>
         <r>
           <rPr>
@@ -968,7 +994,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A75" authorId="0">
+    <comment ref="A77" authorId="0">
       <text>
         <r>
           <rPr>
@@ -981,7 +1007,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A76" authorId="0">
+    <comment ref="A78" authorId="0">
       <text>
         <r>
           <rPr>
@@ -994,7 +1020,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A77" authorId="0">
+    <comment ref="A79" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1007,7 +1033,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A78" authorId="0">
+    <comment ref="A80" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1020,7 +1046,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A79" authorId="0">
+    <comment ref="A81" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If the source was euthanized, select the method of euthanization.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A82" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1033,7 +1072,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A80" authorId="0">
+    <comment ref="A83" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1046,7 +1085,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A81" authorId="0">
+    <comment ref="A84" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1059,7 +1098,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A82" authorId="0">
+    <comment ref="A85" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1072,7 +1111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A83" authorId="0">
+    <comment ref="A86" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1085,7 +1124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A84" authorId="0">
+    <comment ref="A87" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1098,7 +1137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A85" authorId="0">
+    <comment ref="A88" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1111,7 +1150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A86" authorId="0">
+    <comment ref="A89" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1124,7 +1163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A87" authorId="0">
+    <comment ref="A90" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1137,7 +1176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A88" authorId="0">
+    <comment ref="A91" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1150,7 +1189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A89" authorId="0">
+    <comment ref="A92" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1163,7 +1202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A90" authorId="0">
+    <comment ref="A93" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1176,7 +1215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A91" authorId="0">
+    <comment ref="A94" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1189,7 +1228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A92" authorId="0">
+    <comment ref="A95" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1202,7 +1241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A93" authorId="0">
+    <comment ref="A96" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1215,7 +1254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A94" authorId="0">
+    <comment ref="A97" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1228,7 +1267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A95" authorId="0">
+    <comment ref="A98" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1241,7 +1280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A96" authorId="0">
+    <comment ref="A99" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1254,7 +1293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A97" authorId="0">
+    <comment ref="A100" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1267,7 +1306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A98" authorId="0">
+    <comment ref="A101" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1280,7 +1319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A99" authorId="0">
+    <comment ref="A102" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1293,7 +1332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A100" authorId="0">
+    <comment ref="A103" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1306,7 +1345,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="A101" authorId="0">
+    <comment ref="A104" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Is the source deceased? Use either 'True' or 'False'.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A105" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Is the source an embryo? Use either 'True' or 'False'.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A106" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1319,7 +1384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A102" authorId="0">
+    <comment ref="A107" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1332,7 +1397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A103" authorId="0">
+    <comment ref="A108" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1345,7 +1410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A104" authorId="0">
+    <comment ref="A109" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1358,7 +1423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A105" authorId="0">
+    <comment ref="A110" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1371,7 +1436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A106" authorId="0">
+    <comment ref="A111" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1384,7 +1449,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A107" authorId="0">
+    <comment ref="A112" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1397,7 +1462,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A108" authorId="0">
+    <comment ref="A113" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1410,7 +1475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A109" authorId="0">
+    <comment ref="A114" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1423,7 +1488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A110" authorId="0">
+    <comment ref="A115" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1436,7 +1501,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A111" authorId="0">
+    <comment ref="A116" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1449,7 +1514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A112" authorId="0">
+    <comment ref="A117" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1462,7 +1527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A113" authorId="0">
+    <comment ref="A118" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1475,7 +1540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A114" authorId="0">
+    <comment ref="A119" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1488,7 +1553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A115" authorId="0">
+    <comment ref="A120" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1501,7 +1566,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A116" authorId="0">
+    <comment ref="A121" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1514,7 +1579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A117" authorId="0">
+    <comment ref="A122" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1527,7 +1592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A118" authorId="0">
+    <comment ref="A123" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1540,7 +1605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A119" authorId="0">
+    <comment ref="A124" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1553,7 +1618,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A120" authorId="0">
+    <comment ref="A125" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1566,7 +1631,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A121" authorId="0">
+    <comment ref="A126" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1579,7 +1644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A122" authorId="0">
+    <comment ref="A127" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1592,7 +1657,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A123" authorId="0">
+    <comment ref="A128" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1605,7 +1670,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A124" authorId="0">
+    <comment ref="A129" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1618,7 +1683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A125" authorId="0">
+    <comment ref="A130" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1631,7 +1696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A126" authorId="0">
+    <comment ref="A131" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1644,7 +1709,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A127" authorId="0">
+    <comment ref="A132" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1657,7 +1722,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A128" authorId="0">
+    <comment ref="A133" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1670,7 +1735,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A129" authorId="0">
+    <comment ref="A134" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1683,7 +1748,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A130" authorId="0">
+    <comment ref="A135" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1696,7 +1761,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A131" authorId="0">
+    <comment ref="A136" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1709,7 +1774,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A132" authorId="0">
+    <comment ref="A137" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1722,7 +1787,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A133" authorId="0">
+    <comment ref="A138" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1735,7 +1800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A134" authorId="0">
+    <comment ref="A139" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1748,7 +1813,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A135" authorId="0">
+    <comment ref="A140" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1761,7 +1826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A136" authorId="0">
+    <comment ref="A141" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1774,7 +1839,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A137" authorId="0">
+    <comment ref="A142" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1787,7 +1852,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A138" authorId="0">
+    <comment ref="A143" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1800,7 +1865,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A139" authorId="0">
+    <comment ref="A144" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1813,7 +1878,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A140" authorId="0">
+    <comment ref="A145" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1826,7 +1891,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A141" authorId="0">
+    <comment ref="A146" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1839,7 +1904,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A142" authorId="0">
+    <comment ref="A147" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1852,7 +1917,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A143" authorId="0">
+    <comment ref="A148" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1865,7 +1930,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A144" authorId="0">
+    <comment ref="A149" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1878,7 +1943,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A145" authorId="0">
+    <comment ref="A150" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1891,7 +1956,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A146" authorId="0">
+    <comment ref="A151" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1904,7 +1969,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A147" authorId="0">
+    <comment ref="A152" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1917,7 +1982,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A148" authorId="0">
+    <comment ref="A153" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1930,7 +1995,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A149" authorId="0">
+    <comment ref="A154" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1943,7 +2008,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A150" authorId="0">
+    <comment ref="A155" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1956,7 +2021,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A151" authorId="0">
+    <comment ref="A156" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1969,7 +2034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A152" authorId="0">
+    <comment ref="A157" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1982,7 +2047,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A153" authorId="0">
+    <comment ref="A158" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1995,7 +2060,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A154" authorId="0">
+    <comment ref="A159" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2008,7 +2073,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A155" authorId="0">
+    <comment ref="A160" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2021,7 +2086,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A156" authorId="0">
+    <comment ref="A161" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2034,7 +2099,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A157" authorId="0">
+    <comment ref="A162" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2047,7 +2112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A158" authorId="0">
+    <comment ref="A163" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2060,7 +2125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A159" authorId="0">
+    <comment ref="A164" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2073,7 +2138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A160" authorId="0">
+    <comment ref="A165" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2086,7 +2151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A161" authorId="0">
+    <comment ref="A166" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2099,7 +2164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A162" authorId="0">
+    <comment ref="A167" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2112,7 +2177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A163" authorId="0">
+    <comment ref="A168" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2125,7 +2190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A164" authorId="0">
+    <comment ref="A169" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2138,7 +2203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A165" authorId="0">
+    <comment ref="A170" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2151,7 +2216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A166" authorId="0">
+    <comment ref="A171" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2164,7 +2229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A167" authorId="0">
+    <comment ref="A172" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2177,7 +2242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A168" authorId="0">
+    <comment ref="A173" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2190,7 +2255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A169" authorId="0">
+    <comment ref="A174" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2203,7 +2268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A170" authorId="0">
+    <comment ref="A175" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2216,7 +2281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A171" authorId="0">
+    <comment ref="A176" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2229,7 +2294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A172" authorId="0">
+    <comment ref="A177" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2242,7 +2307,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A173" authorId="0">
+    <comment ref="A178" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2255,7 +2320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A174" authorId="0">
+    <comment ref="A179" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2268,7 +2333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A175" authorId="0">
+    <comment ref="A180" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2281,7 +2346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A176" authorId="0">
+    <comment ref="A181" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2294,7 +2359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A177" authorId="0">
+    <comment ref="A182" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2307,7 +2372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A178" authorId="0">
+    <comment ref="A183" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2320,7 +2385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A179" authorId="0">
+    <comment ref="A184" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2333,7 +2398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A180" authorId="0">
+    <comment ref="A185" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2346,7 +2411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A181" authorId="0">
+    <comment ref="A186" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2359,7 +2424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A182" authorId="0">
+    <comment ref="A187" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2372,7 +2437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A183" authorId="0">
+    <comment ref="A188" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2385,7 +2450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A184" authorId="0">
+    <comment ref="A189" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2398,7 +2463,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A185" authorId="0">
+    <comment ref="A190" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2411,7 +2476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A186" authorId="0">
+    <comment ref="A191" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2424,7 +2489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A187" authorId="0">
+    <comment ref="A192" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2437,7 +2502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A188" authorId="0">
+    <comment ref="A193" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2450,7 +2515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A189" authorId="0">
+    <comment ref="A194" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2463,7 +2528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A190" authorId="0">
+    <comment ref="A195" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2476,7 +2541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A191" authorId="0">
+    <comment ref="A196" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2489,7 +2554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A192" authorId="0">
+    <comment ref="A197" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2502,7 +2567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A193" authorId="0">
+    <comment ref="A198" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2515,7 +2580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A194" authorId="0">
+    <comment ref="A199" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2528,7 +2593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A195" authorId="0">
+    <comment ref="A200" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2541,7 +2606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A196" authorId="0">
+    <comment ref="A201" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2554,7 +2619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A197" authorId="0">
+    <comment ref="A202" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2567,7 +2632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A198" authorId="0">
+    <comment ref="A203" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2580,7 +2645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A199" authorId="0">
+    <comment ref="A204" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2593,7 +2658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A200" authorId="0">
+    <comment ref="A205" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2606,7 +2671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A201" authorId="0">
+    <comment ref="A206" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2619,7 +2684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A202" authorId="0">
+    <comment ref="A207" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2632,7 +2697,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A203" authorId="0">
+    <comment ref="A208" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2645,7 +2710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A204" authorId="0">
+    <comment ref="A209" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2658,7 +2723,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A205" authorId="0">
+    <comment ref="A210" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2671,7 +2736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A206" authorId="0">
+    <comment ref="A211" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2684,7 +2749,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A207" authorId="0">
+    <comment ref="A212" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2697,7 +2762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A208" authorId="0">
+    <comment ref="A213" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2710,7 +2775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A209" authorId="0">
+    <comment ref="A214" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2723,7 +2788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A210" authorId="0">
+    <comment ref="A215" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2736,7 +2801,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A211" authorId="0">
+    <comment ref="A216" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2749,7 +2814,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A212" authorId="0">
+    <comment ref="A217" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2762,7 +2827,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A213" authorId="0">
+    <comment ref="A218" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2775,7 +2840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A214" authorId="0">
+    <comment ref="A219" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2788,7 +2853,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A215" authorId="0">
+    <comment ref="A220" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2801,7 +2866,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A216" authorId="0">
+    <comment ref="A221" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2814,7 +2879,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A217" authorId="0">
+    <comment ref="A222" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2827,7 +2892,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A218" authorId="0">
+    <comment ref="A223" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2840,7 +2905,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A219" authorId="0">
+    <comment ref="A224" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2853,7 +2918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A220" authorId="0">
+    <comment ref="A225" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2866,7 +2931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A221" authorId="0">
+    <comment ref="A226" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2879,7 +2944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A222" authorId="0">
+    <comment ref="A227" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2892,7 +2957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A223" authorId="0">
+    <comment ref="A228" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2905,7 +2970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A224" authorId="0">
+    <comment ref="A229" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2918,7 +2983,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A225" authorId="0">
+    <comment ref="A230" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2931,7 +2996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A226" authorId="0">
+    <comment ref="A231" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2944,7 +3009,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A227" authorId="0">
+    <comment ref="A232" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2957,7 +3022,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A228" authorId="0">
+    <comment ref="A233" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2970,7 +3035,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A229" authorId="0">
+    <comment ref="A234" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2983,7 +3048,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A230" authorId="0">
+    <comment ref="A235" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2996,7 +3061,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A231" authorId="0">
+    <comment ref="A236" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3009,7 +3074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A232" authorId="0">
+    <comment ref="A237" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3022,7 +3087,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A233" authorId="0">
+    <comment ref="A238" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3035,7 +3100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A234" authorId="0">
+    <comment ref="A239" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3048,7 +3113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A235" authorId="0">
+    <comment ref="A240" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3061,7 +3126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A236" authorId="0">
+    <comment ref="A241" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3074,7 +3139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A237" authorId="0">
+    <comment ref="A242" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3087,7 +3152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A238" authorId="0">
+    <comment ref="A243" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3100,7 +3165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A239" authorId="0">
+    <comment ref="A244" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3113,7 +3178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A240" authorId="0">
+    <comment ref="A245" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3126,7 +3191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A241" authorId="0">
+    <comment ref="A246" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3139,7 +3204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A242" authorId="0">
+    <comment ref="A247" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3152,7 +3217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A243" authorId="0">
+    <comment ref="A248" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3165,7 +3230,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A244" authorId="0">
+    <comment ref="A249" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The sex of the mouse.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A250" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3178,7 +3256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A245" authorId="0">
+    <comment ref="A251" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3191,7 +3269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A246" authorId="0">
+    <comment ref="A252" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3204,7 +3282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A247" authorId="0">
+    <comment ref="A253" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3217,7 +3295,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A248" authorId="0">
+    <comment ref="A254" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SenNet ID of the source (whole organism) of the assayed tissue.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A255" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3230,7 +3321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A249" authorId="0">
+    <comment ref="A256" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3243,7 +3334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A250" authorId="0">
+    <comment ref="A257" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3256,7 +3347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A251" authorId="0">
+    <comment ref="A258" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3269,7 +3360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A252" authorId="0">
+    <comment ref="A259" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3282,7 +3373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A253" authorId="0">
+    <comment ref="A260" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3295,7 +3386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A254" authorId="0">
+    <comment ref="A261" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3308,7 +3399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A255" authorId="0">
+    <comment ref="A262" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3321,7 +3412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A256" authorId="0">
+    <comment ref="A263" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3334,7 +3425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A257" authorId="0">
+    <comment ref="A264" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3347,7 +3438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A258" authorId="0">
+    <comment ref="A265" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3360,7 +3451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A259" authorId="0">
+    <comment ref="A266" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3373,7 +3464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A260" authorId="0">
+    <comment ref="A267" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3386,7 +3477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A261" authorId="0">
+    <comment ref="A268" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3399,7 +3490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A262" authorId="0">
+    <comment ref="A269" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3412,7 +3503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A263" authorId="0">
+    <comment ref="A270" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3425,7 +3516,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="A264" authorId="0">
+    <comment ref="A271" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jackson Labs nomenclature. When mutant alleles are part of the strain name, use "&lt;" and "&gt;" to indicate the superscripted alleles. For example, C57BL/6J-KitW-39J should be entered as "C57BL/6J-Kit&lt;W-39J&gt;", where "W-39J" would be the portion of the string displayed as superscripted text. For further information, see the "Quick Guide to Mouse Nomenclature" (https://resources.jax.org/guides/quick-guide-to-mouse-nomenclature).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A272" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The Research Resource Identifier (RRID) (https://scicrunch.org/resources/data/source/nlx_154697-1/search) for the strain. An example is 'RRID:MGI:3713213'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A273" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3438,7 +3555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A265" authorId="0">
+    <comment ref="A274" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3451,7 +3568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A266" authorId="0">
+    <comment ref="A275" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3464,7 +3581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A267" authorId="0">
+    <comment ref="A276" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3477,7 +3594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A268" authorId="0">
+    <comment ref="A277" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3490,7 +3607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A269" authorId="0">
+    <comment ref="A278" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3503,7 +3620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A270" authorId="0">
+    <comment ref="A279" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3516,7 +3633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A271" authorId="0">
+    <comment ref="A280" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3529,7 +3646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A272" authorId="0">
+    <comment ref="A281" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3542,7 +3659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A273" authorId="0">
+    <comment ref="A282" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3555,7 +3672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A274" authorId="0">
+    <comment ref="A283" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3568,7 +3685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A275" authorId="0">
+    <comment ref="A284" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3581,7 +3698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A276" authorId="0">
+    <comment ref="A285" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3594,7 +3711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A277" authorId="0">
+    <comment ref="A286" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3607,7 +3724,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A278" authorId="0">
+    <comment ref="A287" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3620,7 +3737,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A279" authorId="0">
+    <comment ref="A288" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3633,7 +3750,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A280" authorId="0">
+    <comment ref="A289" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3646,7 +3763,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A281" authorId="0">
+    <comment ref="A290" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3659,7 +3776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A282" authorId="0">
+    <comment ref="A291" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3672,7 +3789,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A283" authorId="0">
+    <comment ref="A292" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3685,7 +3802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A284" authorId="0">
+    <comment ref="A293" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3698,7 +3815,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A285" authorId="0">
+    <comment ref="A294" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3711,7 +3828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A286" authorId="0">
+    <comment ref="A295" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3724,7 +3841,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A287" authorId="0">
+    <comment ref="A296" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3737,7 +3854,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A288" authorId="0">
+    <comment ref="A297" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3750,7 +3867,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A289" authorId="0">
+    <comment ref="A298" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3763,7 +3880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A290" authorId="0">
+    <comment ref="A299" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3776,7 +3893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A291" authorId="0">
+    <comment ref="A300" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3789,7 +3906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A292" authorId="0">
+    <comment ref="A301" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3807,7 +3924,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="335">
   <si>
     <t>af</t>
   </si>
@@ -4100,6 +4217,12 @@
     <t>data_precision_bytes</t>
   </si>
   <si>
+    <t>date_of_birth_or_fertilization</t>
+  </si>
+  <si>
+    <t>date_of_death</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
@@ -4145,6 +4268,9 @@
     <t>end_datetime</t>
   </si>
   <si>
+    <t>euthanization_method</t>
+  </si>
+  <si>
     <t>execution_datetime</t>
   </si>
   <si>
@@ -4211,6 +4337,12 @@
     <t>is_contact</t>
   </si>
   <si>
+    <t>is_deceased</t>
+  </si>
+  <si>
+    <t>is_embryo</t>
+  </si>
+  <si>
     <t>is_targeted</t>
   </si>
   <si>
@@ -4640,6 +4772,9 @@
     <t>sequencing_reagent_kit</t>
   </si>
   <si>
+    <t>sex</t>
+  </si>
+  <si>
     <t>signal_type</t>
   </si>
   <si>
@@ -4652,6 +4787,9 @@
     <t>sn_quality_unit</t>
   </si>
   <si>
+    <t>source_id</t>
+  </si>
+  <si>
     <t>source_project</t>
   </si>
   <si>
@@ -4698,6 +4836,12 @@
   </si>
   <si>
     <t>storage_method</t>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>strain_rrid</t>
   </si>
   <si>
     <t>suspension_enriched</t>
@@ -5125,7 +5269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI292"/>
+  <dimension ref="A1:AI301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -6344,82 +6488,7 @@
       <c r="A64" t="s">
         <v>97</v>
       </c>
-      <c r="B64" t="s">
-        <v>35</v>
-      </c>
-      <c r="D64" t="s">
-        <v>35</v>
-      </c>
-      <c r="E64" t="s">
-        <v>35</v>
-      </c>
-      <c r="F64" t="s">
-        <v>35</v>
-      </c>
-      <c r="G64" t="s">
-        <v>35</v>
-      </c>
-      <c r="H64" t="s">
-        <v>35</v>
-      </c>
-      <c r="I64" t="s">
-        <v>35</v>
-      </c>
-      <c r="K64" t="s">
-        <v>35</v>
-      </c>
-      <c r="L64" t="s">
-        <v>35</v>
-      </c>
-      <c r="M64" t="s">
-        <v>35</v>
-      </c>
-      <c r="N64" t="s">
-        <v>35</v>
-      </c>
-      <c r="O64" t="s">
-        <v>35</v>
-      </c>
-      <c r="P64" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>35</v>
-      </c>
-      <c r="R64" t="s">
-        <v>35</v>
-      </c>
-      <c r="S64" t="s">
-        <v>35</v>
-      </c>
-      <c r="U64" t="s">
-        <v>35</v>
-      </c>
-      <c r="V64" t="s">
-        <v>35</v>
-      </c>
-      <c r="W64" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB64" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC64" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE64" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF64" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG64" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH64" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI64" t="s">
+      <c r="T64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6427,7 +6496,7 @@
       <c r="A65" t="s">
         <v>98</v>
       </c>
-      <c r="N65" t="s">
+      <c r="T65" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6435,7 +6504,82 @@
       <c r="A66" t="s">
         <v>99</v>
       </c>
+      <c r="B66" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" t="s">
+        <v>35</v>
+      </c>
+      <c r="F66" t="s">
+        <v>35</v>
+      </c>
+      <c r="G66" t="s">
+        <v>35</v>
+      </c>
+      <c r="H66" t="s">
+        <v>35</v>
+      </c>
+      <c r="I66" t="s">
+        <v>35</v>
+      </c>
+      <c r="K66" t="s">
+        <v>35</v>
+      </c>
+      <c r="L66" t="s">
+        <v>35</v>
+      </c>
+      <c r="M66" t="s">
+        <v>35</v>
+      </c>
       <c r="N66" t="s">
+        <v>35</v>
+      </c>
+      <c r="O66" t="s">
+        <v>35</v>
+      </c>
+      <c r="P66" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>35</v>
+      </c>
+      <c r="R66" t="s">
+        <v>35</v>
+      </c>
+      <c r="S66" t="s">
+        <v>35</v>
+      </c>
+      <c r="U66" t="s">
+        <v>35</v>
+      </c>
+      <c r="V66" t="s">
+        <v>35</v>
+      </c>
+      <c r="W66" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI66" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6451,7 +6595,7 @@
       <c r="A68" t="s">
         <v>101</v>
       </c>
-      <c r="T68" t="s">
+      <c r="N68" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6459,7 +6603,7 @@
       <c r="A69" t="s">
         <v>102</v>
       </c>
-      <c r="C69" t="s">
+      <c r="N69" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6467,7 +6611,7 @@
       <c r="A70" t="s">
         <v>103</v>
       </c>
-      <c r="O70" t="s">
+      <c r="T70" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6475,7 +6619,7 @@
       <c r="A71" t="s">
         <v>104</v>
       </c>
-      <c r="AI71" t="s">
+      <c r="C71" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6483,7 +6627,7 @@
       <c r="A72" t="s">
         <v>105</v>
       </c>
-      <c r="AI72" t="s">
+      <c r="O72" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6491,84 +6635,6 @@
       <c r="A73" t="s">
         <v>106</v>
       </c>
-      <c r="B73" t="s">
-        <v>35</v>
-      </c>
-      <c r="D73" t="s">
-        <v>35</v>
-      </c>
-      <c r="E73" t="s">
-        <v>35</v>
-      </c>
-      <c r="F73" t="s">
-        <v>35</v>
-      </c>
-      <c r="G73" t="s">
-        <v>35</v>
-      </c>
-      <c r="H73" t="s">
-        <v>35</v>
-      </c>
-      <c r="I73" t="s">
-        <v>35</v>
-      </c>
-      <c r="K73" t="s">
-        <v>35</v>
-      </c>
-      <c r="L73" t="s">
-        <v>35</v>
-      </c>
-      <c r="M73" t="s">
-        <v>35</v>
-      </c>
-      <c r="N73" t="s">
-        <v>35</v>
-      </c>
-      <c r="O73" t="s">
-        <v>35</v>
-      </c>
-      <c r="P73" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>35</v>
-      </c>
-      <c r="R73" t="s">
-        <v>35</v>
-      </c>
-      <c r="S73" t="s">
-        <v>35</v>
-      </c>
-      <c r="U73" t="s">
-        <v>35</v>
-      </c>
-      <c r="V73" t="s">
-        <v>35</v>
-      </c>
-      <c r="W73" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB73" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC73" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD73" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE73" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF73" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG73" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH73" t="s">
-        <v>35</v>
-      </c>
       <c r="AI73" t="s">
         <v>35</v>
       </c>
@@ -6577,10 +6643,7 @@
       <c r="A74" t="s">
         <v>107</v>
       </c>
-      <c r="L74" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q74" t="s">
+      <c r="AI74" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6588,7 +6651,85 @@
       <c r="A75" t="s">
         <v>108</v>
       </c>
+      <c r="B75" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" t="s">
+        <v>35</v>
+      </c>
+      <c r="F75" t="s">
+        <v>35</v>
+      </c>
+      <c r="G75" t="s">
+        <v>35</v>
+      </c>
+      <c r="H75" t="s">
+        <v>35</v>
+      </c>
+      <c r="I75" t="s">
+        <v>35</v>
+      </c>
+      <c r="K75" t="s">
+        <v>35</v>
+      </c>
+      <c r="L75" t="s">
+        <v>35</v>
+      </c>
+      <c r="M75" t="s">
+        <v>35</v>
+      </c>
+      <c r="N75" t="s">
+        <v>35</v>
+      </c>
+      <c r="O75" t="s">
+        <v>35</v>
+      </c>
+      <c r="P75" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>35</v>
+      </c>
+      <c r="R75" t="s">
+        <v>35</v>
+      </c>
+      <c r="S75" t="s">
+        <v>35</v>
+      </c>
+      <c r="U75" t="s">
+        <v>35</v>
+      </c>
+      <c r="V75" t="s">
+        <v>35</v>
+      </c>
+      <c r="W75" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>35</v>
+      </c>
       <c r="AH75" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI75" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6596,7 +6737,10 @@
       <c r="A76" t="s">
         <v>109</v>
       </c>
-      <c r="S76" t="s">
+      <c r="L76" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q76" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6604,7 +6748,7 @@
       <c r="A77" t="s">
         <v>110</v>
       </c>
-      <c r="S77" t="s">
+      <c r="AH77" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6612,10 +6756,7 @@
       <c r="A78" t="s">
         <v>111</v>
       </c>
-      <c r="L78" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q78" t="s">
+      <c r="S78" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6623,85 +6764,7 @@
       <c r="A79" t="s">
         <v>112</v>
       </c>
-      <c r="B79" t="s">
-        <v>35</v>
-      </c>
-      <c r="D79" t="s">
-        <v>35</v>
-      </c>
-      <c r="E79" t="s">
-        <v>35</v>
-      </c>
-      <c r="F79" t="s">
-        <v>35</v>
-      </c>
-      <c r="G79" t="s">
-        <v>35</v>
-      </c>
-      <c r="H79" t="s">
-        <v>35</v>
-      </c>
-      <c r="I79" t="s">
-        <v>35</v>
-      </c>
-      <c r="K79" t="s">
-        <v>35</v>
-      </c>
-      <c r="L79" t="s">
-        <v>35</v>
-      </c>
-      <c r="M79" t="s">
-        <v>35</v>
-      </c>
-      <c r="N79" t="s">
-        <v>35</v>
-      </c>
-      <c r="O79" t="s">
-        <v>35</v>
-      </c>
-      <c r="P79" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>35</v>
-      </c>
-      <c r="R79" t="s">
-        <v>35</v>
-      </c>
       <c r="S79" t="s">
-        <v>35</v>
-      </c>
-      <c r="U79" t="s">
-        <v>35</v>
-      </c>
-      <c r="V79" t="s">
-        <v>35</v>
-      </c>
-      <c r="W79" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB79" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC79" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD79" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE79" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF79" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG79" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH79" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI79" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6709,7 +6772,10 @@
       <c r="A80" t="s">
         <v>113</v>
       </c>
-      <c r="AC80" t="s">
+      <c r="L80" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q80" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6717,7 +6783,7 @@
       <c r="A81" t="s">
         <v>114</v>
       </c>
-      <c r="S81" t="s">
+      <c r="T81" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6725,7 +6791,85 @@
       <c r="A82" t="s">
         <v>115</v>
       </c>
+      <c r="B82" t="s">
+        <v>35</v>
+      </c>
+      <c r="D82" t="s">
+        <v>35</v>
+      </c>
+      <c r="E82" t="s">
+        <v>35</v>
+      </c>
+      <c r="F82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G82" t="s">
+        <v>35</v>
+      </c>
+      <c r="H82" t="s">
+        <v>35</v>
+      </c>
+      <c r="I82" t="s">
+        <v>35</v>
+      </c>
+      <c r="K82" t="s">
+        <v>35</v>
+      </c>
+      <c r="L82" t="s">
+        <v>35</v>
+      </c>
+      <c r="M82" t="s">
+        <v>35</v>
+      </c>
+      <c r="N82" t="s">
+        <v>35</v>
+      </c>
+      <c r="O82" t="s">
+        <v>35</v>
+      </c>
+      <c r="P82" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>35</v>
+      </c>
+      <c r="R82" t="s">
+        <v>35</v>
+      </c>
       <c r="S82" t="s">
+        <v>35</v>
+      </c>
+      <c r="U82" t="s">
+        <v>35</v>
+      </c>
+      <c r="V82" t="s">
+        <v>35</v>
+      </c>
+      <c r="W82" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH82" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI82" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6733,7 +6877,7 @@
       <c r="A83" t="s">
         <v>116</v>
       </c>
-      <c r="R83" t="s">
+      <c r="AC83" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6741,7 +6885,7 @@
       <c r="A84" t="s">
         <v>117</v>
       </c>
-      <c r="J84" t="s">
+      <c r="S84" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6757,10 +6901,7 @@
       <c r="A86" t="s">
         <v>119</v>
       </c>
-      <c r="S86" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH86" t="s">
+      <c r="R86" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6768,10 +6909,7 @@
       <c r="A87" t="s">
         <v>120</v>
       </c>
-      <c r="S87" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH87" t="s">
+      <c r="J87" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6779,7 +6917,7 @@
       <c r="A88" t="s">
         <v>121</v>
       </c>
-      <c r="AI88" t="s">
+      <c r="S88" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6787,7 +6925,10 @@
       <c r="A89" t="s">
         <v>122</v>
       </c>
-      <c r="K89" t="s">
+      <c r="S89" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH89" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6795,6 +6936,9 @@
       <c r="A90" t="s">
         <v>123</v>
       </c>
+      <c r="S90" t="s">
+        <v>35</v>
+      </c>
       <c r="AH90" t="s">
         <v>35</v>
       </c>
@@ -6803,7 +6947,7 @@
       <c r="A91" t="s">
         <v>124</v>
       </c>
-      <c r="X91" t="s">
+      <c r="AI91" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6811,10 +6955,7 @@
       <c r="A92" t="s">
         <v>125</v>
       </c>
-      <c r="Y92" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z92" t="s">
+      <c r="K92" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6822,7 +6963,7 @@
       <c r="A93" t="s">
         <v>126</v>
       </c>
-      <c r="R93" t="s">
+      <c r="AH93" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6830,7 +6971,7 @@
       <c r="A94" t="s">
         <v>127</v>
       </c>
-      <c r="R94" t="s">
+      <c r="X94" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6838,7 +6979,10 @@
       <c r="A95" t="s">
         <v>128</v>
       </c>
-      <c r="P95" t="s">
+      <c r="Y95" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z95" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6846,7 +6990,7 @@
       <c r="A96" t="s">
         <v>129</v>
       </c>
-      <c r="P96" t="s">
+      <c r="R96" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6854,7 +6998,7 @@
       <c r="A97" t="s">
         <v>130</v>
       </c>
-      <c r="K97" t="s">
+      <c r="R97" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6862,16 +7006,7 @@
       <c r="A98" t="s">
         <v>131</v>
       </c>
-      <c r="H98" t="s">
-        <v>35</v>
-      </c>
-      <c r="K98" t="s">
-        <v>35</v>
-      </c>
-      <c r="N98" t="s">
-        <v>35</v>
-      </c>
-      <c r="O98" t="s">
+      <c r="P98" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6879,7 +7014,7 @@
       <c r="A99" t="s">
         <v>132</v>
       </c>
-      <c r="K99" t="s">
+      <c r="P99" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6887,7 +7022,7 @@
       <c r="A100" t="s">
         <v>133</v>
       </c>
-      <c r="J100" t="s">
+      <c r="K100" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6895,70 +7030,16 @@
       <c r="A101" t="s">
         <v>134</v>
       </c>
-      <c r="B101" t="s">
-        <v>35</v>
-      </c>
-      <c r="E101" t="s">
-        <v>35</v>
-      </c>
-      <c r="F101" t="s">
-        <v>35</v>
-      </c>
-      <c r="G101" t="s">
-        <v>35</v>
-      </c>
       <c r="H101" t="s">
         <v>35</v>
       </c>
-      <c r="I101" t="s">
-        <v>35</v>
-      </c>
       <c r="K101" t="s">
         <v>35</v>
       </c>
-      <c r="L101" t="s">
-        <v>35</v>
-      </c>
-      <c r="M101" t="s">
-        <v>35</v>
-      </c>
       <c r="N101" t="s">
         <v>35</v>
       </c>
       <c r="O101" t="s">
-        <v>35</v>
-      </c>
-      <c r="P101" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>35</v>
-      </c>
-      <c r="U101" t="s">
-        <v>35</v>
-      </c>
-      <c r="V101" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB101" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC101" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD101" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE101" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF101" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG101" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI101" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6966,19 +7047,7 @@
       <c r="A102" t="s">
         <v>135</v>
       </c>
-      <c r="E102" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB102" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC102" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD102" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF102" t="s">
+      <c r="K102" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6986,7 +7055,7 @@
       <c r="A103" t="s">
         <v>136</v>
       </c>
-      <c r="O103" t="s">
+      <c r="J103" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6994,13 +7063,7 @@
       <c r="A104" t="s">
         <v>137</v>
       </c>
-      <c r="H104" t="s">
-        <v>35</v>
-      </c>
-      <c r="K104" t="s">
-        <v>35</v>
-      </c>
-      <c r="O104" t="s">
+      <c r="T104" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7008,7 +7071,7 @@
       <c r="A105" t="s">
         <v>138</v>
       </c>
-      <c r="J105" t="s">
+      <c r="T105" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7016,7 +7079,70 @@
       <c r="A106" t="s">
         <v>139</v>
       </c>
+      <c r="B106" t="s">
+        <v>35</v>
+      </c>
+      <c r="E106" t="s">
+        <v>35</v>
+      </c>
+      <c r="F106" t="s">
+        <v>35</v>
+      </c>
+      <c r="G106" t="s">
+        <v>35</v>
+      </c>
+      <c r="H106" t="s">
+        <v>35</v>
+      </c>
+      <c r="I106" t="s">
+        <v>35</v>
+      </c>
+      <c r="K106" t="s">
+        <v>35</v>
+      </c>
+      <c r="L106" t="s">
+        <v>35</v>
+      </c>
+      <c r="M106" t="s">
+        <v>35</v>
+      </c>
+      <c r="N106" t="s">
+        <v>35</v>
+      </c>
       <c r="O106" t="s">
+        <v>35</v>
+      </c>
+      <c r="P106" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>35</v>
+      </c>
+      <c r="U106" t="s">
+        <v>35</v>
+      </c>
+      <c r="V106" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC106" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD106" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE106" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF106" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG106" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI106" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7024,7 +7150,19 @@
       <c r="A107" t="s">
         <v>140</v>
       </c>
-      <c r="O107" t="s">
+      <c r="E107" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB107" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC107" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD107" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF107" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7040,6 +7178,12 @@
       <c r="A109" t="s">
         <v>142</v>
       </c>
+      <c r="H109" t="s">
+        <v>35</v>
+      </c>
+      <c r="K109" t="s">
+        <v>35</v>
+      </c>
       <c r="O109" t="s">
         <v>35</v>
       </c>
@@ -7048,7 +7192,7 @@
       <c r="A110" t="s">
         <v>143</v>
       </c>
-      <c r="O110" t="s">
+      <c r="J110" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7144,25 +7288,7 @@
       <c r="A122" t="s">
         <v>155</v>
       </c>
-      <c r="E122" t="s">
-        <v>35</v>
-      </c>
-      <c r="F122" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB122" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC122" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD122" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF122" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI122" t="s">
+      <c r="O122" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7170,25 +7296,7 @@
       <c r="A123" t="s">
         <v>156</v>
       </c>
-      <c r="E123" t="s">
-        <v>35</v>
-      </c>
-      <c r="F123" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB123" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC123" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD123" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF123" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI123" t="s">
+      <c r="O123" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7196,7 +7304,7 @@
       <c r="A124" t="s">
         <v>157</v>
       </c>
-      <c r="E124" t="s">
+      <c r="O124" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7204,7 +7312,7 @@
       <c r="A125" t="s">
         <v>158</v>
       </c>
-      <c r="E125" t="s">
+      <c r="O125" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7212,7 +7320,7 @@
       <c r="A126" t="s">
         <v>159</v>
       </c>
-      <c r="AI126" t="s">
+      <c r="O126" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7249,15 +7357,30 @@
       <c r="E128" t="s">
         <v>35</v>
       </c>
+      <c r="F128" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB128" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC128" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD128" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF128" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI128" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="129" spans="1:35">
       <c r="A129" t="s">
         <v>162</v>
       </c>
-      <c r="AB129" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI129" t="s">
+      <c r="E129" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7268,42 +7391,12 @@
       <c r="E130" t="s">
         <v>35</v>
       </c>
-      <c r="F130" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB130" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC130" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD130" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF130" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI130" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="131" spans="1:35">
       <c r="A131" t="s">
         <v>164</v>
       </c>
-      <c r="E131" t="s">
-        <v>35</v>
-      </c>
-      <c r="F131" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC131" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD131" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF131" t="s">
+      <c r="AI131" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7314,6 +7407,9 @@
       <c r="E132" t="s">
         <v>35</v>
       </c>
+      <c r="F132" t="s">
+        <v>35</v>
+      </c>
       <c r="AB132" t="s">
         <v>35</v>
       </c>
@@ -7321,6 +7417,12 @@
         <v>35</v>
       </c>
       <c r="AD132" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF132" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI132" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7331,42 +7433,15 @@
       <c r="E133" t="s">
         <v>35</v>
       </c>
-      <c r="F133" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB133" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC133" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD133" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF133" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI133" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="134" spans="1:35">
       <c r="A134" t="s">
         <v>167</v>
       </c>
-      <c r="E134" t="s">
-        <v>35</v>
-      </c>
       <c r="AB134" t="s">
         <v>35</v>
       </c>
-      <c r="AC134" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD134" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF134" t="s">
+      <c r="AI134" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7374,6 +7449,9 @@
       <c r="A135" t="s">
         <v>168</v>
       </c>
+      <c r="E135" t="s">
+        <v>35</v>
+      </c>
       <c r="F135" t="s">
         <v>35</v>
       </c>
@@ -7387,6 +7465,9 @@
         <v>35</v>
       </c>
       <c r="AF135" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI135" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7397,12 +7478,33 @@
       <c r="E136" t="s">
         <v>35</v>
       </c>
+      <c r="F136" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC136" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD136" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF136" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="137" spans="1:35">
       <c r="A137" t="s">
         <v>170</v>
       </c>
-      <c r="T137" t="s">
+      <c r="E137" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB137" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC137" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD137" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7410,7 +7512,25 @@
       <c r="A138" t="s">
         <v>171</v>
       </c>
-      <c r="T138" t="s">
+      <c r="E138" t="s">
+        <v>35</v>
+      </c>
+      <c r="F138" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB138" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC138" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD138" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF138" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI138" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7418,7 +7538,19 @@
       <c r="A139" t="s">
         <v>172</v>
       </c>
-      <c r="C139" t="s">
+      <c r="E139" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB139" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC139" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD139" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF139" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7426,16 +7558,19 @@
       <c r="A140" t="s">
         <v>173</v>
       </c>
-      <c r="H140" t="s">
-        <v>35</v>
-      </c>
-      <c r="K140" t="s">
-        <v>35</v>
-      </c>
-      <c r="N140" t="s">
-        <v>35</v>
-      </c>
-      <c r="O140" t="s">
+      <c r="F140" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB140" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC140" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD140" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF140" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7443,28 +7578,7 @@
       <c r="A141" t="s">
         <v>174</v>
       </c>
-      <c r="D141" t="s">
-        <v>35</v>
-      </c>
-      <c r="L141" t="s">
-        <v>35</v>
-      </c>
-      <c r="M141" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q141" t="s">
-        <v>35</v>
-      </c>
-      <c r="R141" t="s">
-        <v>35</v>
-      </c>
-      <c r="S141" t="s">
-        <v>35</v>
-      </c>
-      <c r="W141" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH141" t="s">
+      <c r="E141" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7472,28 +7586,7 @@
       <c r="A142" t="s">
         <v>175</v>
       </c>
-      <c r="D142" t="s">
-        <v>35</v>
-      </c>
-      <c r="L142" t="s">
-        <v>35</v>
-      </c>
-      <c r="M142" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q142" t="s">
-        <v>35</v>
-      </c>
-      <c r="R142" t="s">
-        <v>35</v>
-      </c>
-      <c r="S142" t="s">
-        <v>35</v>
-      </c>
-      <c r="W142" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH142" t="s">
+      <c r="T142" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7501,28 +7594,7 @@
       <c r="A143" t="s">
         <v>176</v>
       </c>
-      <c r="D143" t="s">
-        <v>35</v>
-      </c>
-      <c r="L143" t="s">
-        <v>35</v>
-      </c>
-      <c r="M143" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q143" t="s">
-        <v>35</v>
-      </c>
-      <c r="R143" t="s">
-        <v>35</v>
-      </c>
-      <c r="S143" t="s">
-        <v>35</v>
-      </c>
-      <c r="W143" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH143" t="s">
+      <c r="T143" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7530,229 +7602,268 @@
       <c r="A144" t="s">
         <v>177</v>
       </c>
-      <c r="D144" t="s">
-        <v>35</v>
-      </c>
-      <c r="L144" t="s">
-        <v>35</v>
-      </c>
-      <c r="M144" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q144" t="s">
-        <v>35</v>
-      </c>
-      <c r="R144" t="s">
-        <v>35</v>
-      </c>
-      <c r="S144" t="s">
-        <v>35</v>
-      </c>
-      <c r="W144" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH144" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="145" spans="1:31">
+      <c r="C144" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145" spans="1:34">
       <c r="A145" t="s">
         <v>178</v>
       </c>
-      <c r="J145" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="146" spans="1:31">
+      <c r="H145" t="s">
+        <v>35</v>
+      </c>
+      <c r="K145" t="s">
+        <v>35</v>
+      </c>
+      <c r="N145" t="s">
+        <v>35</v>
+      </c>
+      <c r="O145" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="146" spans="1:34">
       <c r="A146" t="s">
         <v>179</v>
       </c>
-      <c r="H146" t="s">
-        <v>35</v>
-      </c>
-      <c r="K146" t="s">
-        <v>35</v>
-      </c>
-      <c r="N146" t="s">
-        <v>35</v>
-      </c>
-      <c r="O146" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="147" spans="1:31">
+      <c r="D146" t="s">
+        <v>35</v>
+      </c>
+      <c r="L146" t="s">
+        <v>35</v>
+      </c>
+      <c r="M146" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>35</v>
+      </c>
+      <c r="R146" t="s">
+        <v>35</v>
+      </c>
+      <c r="S146" t="s">
+        <v>35</v>
+      </c>
+      <c r="W146" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH146" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="147" spans="1:34">
       <c r="A147" t="s">
         <v>180</v>
       </c>
-      <c r="H147" t="s">
-        <v>35</v>
-      </c>
-      <c r="K147" t="s">
-        <v>35</v>
-      </c>
-      <c r="N147" t="s">
-        <v>35</v>
-      </c>
-      <c r="O147" t="s">
-        <v>35</v>
-      </c>
-      <c r="V147" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="148" spans="1:31">
+      <c r="D147" t="s">
+        <v>35</v>
+      </c>
+      <c r="L147" t="s">
+        <v>35</v>
+      </c>
+      <c r="M147" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>35</v>
+      </c>
+      <c r="R147" t="s">
+        <v>35</v>
+      </c>
+      <c r="S147" t="s">
+        <v>35</v>
+      </c>
+      <c r="W147" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH147" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="148" spans="1:34">
       <c r="A148" t="s">
         <v>181</v>
       </c>
-      <c r="H148" t="s">
-        <v>35</v>
-      </c>
-      <c r="K148" t="s">
-        <v>35</v>
-      </c>
-      <c r="N148" t="s">
-        <v>35</v>
-      </c>
-      <c r="O148" t="s">
-        <v>35</v>
-      </c>
-      <c r="V148" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="149" spans="1:31">
+      <c r="D148" t="s">
+        <v>35</v>
+      </c>
+      <c r="L148" t="s">
+        <v>35</v>
+      </c>
+      <c r="M148" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>35</v>
+      </c>
+      <c r="R148" t="s">
+        <v>35</v>
+      </c>
+      <c r="S148" t="s">
+        <v>35</v>
+      </c>
+      <c r="W148" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH148" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="149" spans="1:34">
       <c r="A149" t="s">
         <v>182</v>
       </c>
-      <c r="H149" t="s">
-        <v>35</v>
-      </c>
-      <c r="K149" t="s">
-        <v>35</v>
-      </c>
-      <c r="N149" t="s">
-        <v>35</v>
-      </c>
-      <c r="O149" t="s">
-        <v>35</v>
-      </c>
-      <c r="V149" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="150" spans="1:31">
+      <c r="D149" t="s">
+        <v>35</v>
+      </c>
+      <c r="L149" t="s">
+        <v>35</v>
+      </c>
+      <c r="M149" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>35</v>
+      </c>
+      <c r="R149" t="s">
+        <v>35</v>
+      </c>
+      <c r="S149" t="s">
+        <v>35</v>
+      </c>
+      <c r="W149" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH149" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150" spans="1:34">
       <c r="A150" t="s">
         <v>183</v>
       </c>
-      <c r="H150" t="s">
-        <v>35</v>
-      </c>
-      <c r="K150" t="s">
-        <v>35</v>
-      </c>
-      <c r="N150" t="s">
-        <v>35</v>
-      </c>
-      <c r="O150" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="151" spans="1:31">
+      <c r="J150" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="151" spans="1:34">
       <c r="A151" t="s">
         <v>184</v>
       </c>
-      <c r="J151" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="152" spans="1:31">
+      <c r="H151" t="s">
+        <v>35</v>
+      </c>
+      <c r="K151" t="s">
+        <v>35</v>
+      </c>
+      <c r="N151" t="s">
+        <v>35</v>
+      </c>
+      <c r="O151" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="152" spans="1:34">
       <c r="A152" t="s">
         <v>185</v>
       </c>
-      <c r="Y152" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z152" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA152" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="153" spans="1:31">
+      <c r="H152" t="s">
+        <v>35</v>
+      </c>
+      <c r="K152" t="s">
+        <v>35</v>
+      </c>
+      <c r="N152" t="s">
+        <v>35</v>
+      </c>
+      <c r="O152" t="s">
+        <v>35</v>
+      </c>
+      <c r="V152" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="153" spans="1:34">
       <c r="A153" t="s">
         <v>186</v>
       </c>
-      <c r="G153" t="s">
-        <v>35</v>
-      </c>
-      <c r="I153" t="s">
-        <v>35</v>
-      </c>
-      <c r="P153" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q153" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="154" spans="1:31">
+      <c r="H153" t="s">
+        <v>35</v>
+      </c>
+      <c r="K153" t="s">
+        <v>35</v>
+      </c>
+      <c r="N153" t="s">
+        <v>35</v>
+      </c>
+      <c r="O153" t="s">
+        <v>35</v>
+      </c>
+      <c r="V153" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="154" spans="1:34">
       <c r="A154" t="s">
         <v>187</v>
       </c>
-      <c r="S154" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="155" spans="1:31">
+      <c r="H154" t="s">
+        <v>35</v>
+      </c>
+      <c r="K154" t="s">
+        <v>35</v>
+      </c>
+      <c r="N154" t="s">
+        <v>35</v>
+      </c>
+      <c r="O154" t="s">
+        <v>35</v>
+      </c>
+      <c r="V154" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="155" spans="1:34">
       <c r="A155" t="s">
         <v>188</v>
       </c>
-      <c r="AE155" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="156" spans="1:31">
+      <c r="H155" t="s">
+        <v>35</v>
+      </c>
+      <c r="K155" t="s">
+        <v>35</v>
+      </c>
+      <c r="N155" t="s">
+        <v>35</v>
+      </c>
+      <c r="O155" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="156" spans="1:34">
       <c r="A156" t="s">
         <v>189</v>
       </c>
-      <c r="AE156" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="157" spans="1:31">
+      <c r="J156" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="157" spans="1:34">
       <c r="A157" t="s">
         <v>190</v>
       </c>
-      <c r="B157" t="s">
-        <v>35</v>
-      </c>
-      <c r="G157" t="s">
-        <v>35</v>
-      </c>
-      <c r="I157" t="s">
-        <v>35</v>
-      </c>
-      <c r="L157" t="s">
-        <v>35</v>
-      </c>
-      <c r="M157" t="s">
-        <v>35</v>
-      </c>
-      <c r="P157" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q157" t="s">
-        <v>35</v>
-      </c>
-      <c r="U157" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE157" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="158" spans="1:31">
+      <c r="Y157" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z157" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA157" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="158" spans="1:34">
       <c r="A158" t="s">
         <v>191</v>
       </c>
@@ -7762,14 +7873,14 @@
       <c r="I158" t="s">
         <v>35</v>
       </c>
-      <c r="U158" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE158" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="159" spans="1:31">
+      <c r="P158" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="159" spans="1:34">
       <c r="A159" t="s">
         <v>192</v>
       </c>
@@ -7777,11 +7888,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:31">
+    <row r="160" spans="1:34">
       <c r="A160" t="s">
         <v>193</v>
       </c>
-      <c r="S160" t="s">
+      <c r="AE160" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7789,19 +7900,7 @@
       <c r="A161" t="s">
         <v>194</v>
       </c>
-      <c r="D161" t="s">
-        <v>35</v>
-      </c>
-      <c r="R161" t="s">
-        <v>35</v>
-      </c>
-      <c r="S161" t="s">
-        <v>35</v>
-      </c>
-      <c r="W161" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH161" t="s">
+      <c r="AE161" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7809,7 +7908,31 @@
       <c r="A162" t="s">
         <v>195</v>
       </c>
+      <c r="B162" t="s">
+        <v>35</v>
+      </c>
       <c r="G162" t="s">
+        <v>35</v>
+      </c>
+      <c r="I162" t="s">
+        <v>35</v>
+      </c>
+      <c r="L162" t="s">
+        <v>35</v>
+      </c>
+      <c r="M162" t="s">
+        <v>35</v>
+      </c>
+      <c r="P162" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>35</v>
+      </c>
+      <c r="U162" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE162" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7817,6 +7940,15 @@
       <c r="A163" t="s">
         <v>196</v>
       </c>
+      <c r="G163" t="s">
+        <v>35</v>
+      </c>
+      <c r="I163" t="s">
+        <v>35</v>
+      </c>
+      <c r="U163" t="s">
+        <v>35</v>
+      </c>
       <c r="AE163" t="s">
         <v>35</v>
       </c>
@@ -7825,7 +7957,7 @@
       <c r="A164" t="s">
         <v>197</v>
       </c>
-      <c r="AE164" t="s">
+      <c r="S164" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7833,7 +7965,7 @@
       <c r="A165" t="s">
         <v>198</v>
       </c>
-      <c r="M165" t="s">
+      <c r="S165" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7841,85 +7973,19 @@
       <c r="A166" t="s">
         <v>199</v>
       </c>
-      <c r="B166" t="s">
-        <v>35</v>
-      </c>
       <c r="D166" t="s">
         <v>35</v>
       </c>
-      <c r="E166" t="s">
-        <v>35</v>
-      </c>
-      <c r="F166" t="s">
-        <v>35</v>
-      </c>
-      <c r="G166" t="s">
-        <v>35</v>
-      </c>
-      <c r="H166" t="s">
-        <v>35</v>
-      </c>
-      <c r="I166" t="s">
-        <v>35</v>
-      </c>
-      <c r="K166" t="s">
-        <v>35</v>
-      </c>
-      <c r="L166" t="s">
-        <v>35</v>
-      </c>
-      <c r="M166" t="s">
-        <v>35</v>
-      </c>
-      <c r="N166" t="s">
-        <v>35</v>
-      </c>
-      <c r="O166" t="s">
-        <v>35</v>
-      </c>
-      <c r="P166" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q166" t="s">
-        <v>35</v>
-      </c>
       <c r="R166" t="s">
         <v>35</v>
       </c>
       <c r="S166" t="s">
         <v>35</v>
       </c>
-      <c r="U166" t="s">
-        <v>35</v>
-      </c>
-      <c r="V166" t="s">
-        <v>35</v>
-      </c>
       <c r="W166" t="s">
         <v>35</v>
       </c>
-      <c r="AB166" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC166" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD166" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE166" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF166" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG166" t="s">
-        <v>35</v>
-      </c>
       <c r="AH166" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI166" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7927,85 +7993,7 @@
       <c r="A167" t="s">
         <v>200</v>
       </c>
-      <c r="B167" t="s">
-        <v>35</v>
-      </c>
-      <c r="D167" t="s">
-        <v>35</v>
-      </c>
-      <c r="E167" t="s">
-        <v>35</v>
-      </c>
-      <c r="F167" t="s">
-        <v>35</v>
-      </c>
       <c r="G167" t="s">
-        <v>35</v>
-      </c>
-      <c r="H167" t="s">
-        <v>35</v>
-      </c>
-      <c r="I167" t="s">
-        <v>35</v>
-      </c>
-      <c r="K167" t="s">
-        <v>35</v>
-      </c>
-      <c r="L167" t="s">
-        <v>35</v>
-      </c>
-      <c r="M167" t="s">
-        <v>35</v>
-      </c>
-      <c r="N167" t="s">
-        <v>35</v>
-      </c>
-      <c r="O167" t="s">
-        <v>35</v>
-      </c>
-      <c r="P167" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q167" t="s">
-        <v>35</v>
-      </c>
-      <c r="R167" t="s">
-        <v>35</v>
-      </c>
-      <c r="S167" t="s">
-        <v>35</v>
-      </c>
-      <c r="U167" t="s">
-        <v>35</v>
-      </c>
-      <c r="V167" t="s">
-        <v>35</v>
-      </c>
-      <c r="W167" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB167" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC167" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD167" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE167" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF167" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG167" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH167" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI167" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8013,7 +8001,7 @@
       <c r="A168" t="s">
         <v>201</v>
       </c>
-      <c r="J168" t="s">
+      <c r="AE168" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8021,7 +8009,7 @@
       <c r="A169" t="s">
         <v>202</v>
       </c>
-      <c r="X169" t="s">
+      <c r="AE169" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8029,31 +8017,7 @@
       <c r="A170" t="s">
         <v>203</v>
       </c>
-      <c r="B170" t="s">
-        <v>35</v>
-      </c>
-      <c r="G170" t="s">
-        <v>35</v>
-      </c>
-      <c r="H170" t="s">
-        <v>35</v>
-      </c>
-      <c r="K170" t="s">
-        <v>35</v>
-      </c>
-      <c r="N170" t="s">
-        <v>35</v>
-      </c>
-      <c r="O170" t="s">
-        <v>35</v>
-      </c>
-      <c r="U170" t="s">
-        <v>35</v>
-      </c>
-      <c r="V170" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG170" t="s">
+      <c r="M170" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8061,7 +8025,85 @@
       <c r="A171" t="s">
         <v>204</v>
       </c>
-      <c r="X171" t="s">
+      <c r="B171" t="s">
+        <v>35</v>
+      </c>
+      <c r="D171" t="s">
+        <v>35</v>
+      </c>
+      <c r="E171" t="s">
+        <v>35</v>
+      </c>
+      <c r="F171" t="s">
+        <v>35</v>
+      </c>
+      <c r="G171" t="s">
+        <v>35</v>
+      </c>
+      <c r="H171" t="s">
+        <v>35</v>
+      </c>
+      <c r="I171" t="s">
+        <v>35</v>
+      </c>
+      <c r="K171" t="s">
+        <v>35</v>
+      </c>
+      <c r="L171" t="s">
+        <v>35</v>
+      </c>
+      <c r="M171" t="s">
+        <v>35</v>
+      </c>
+      <c r="N171" t="s">
+        <v>35</v>
+      </c>
+      <c r="O171" t="s">
+        <v>35</v>
+      </c>
+      <c r="P171" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>35</v>
+      </c>
+      <c r="R171" t="s">
+        <v>35</v>
+      </c>
+      <c r="S171" t="s">
+        <v>35</v>
+      </c>
+      <c r="U171" t="s">
+        <v>35</v>
+      </c>
+      <c r="V171" t="s">
+        <v>35</v>
+      </c>
+      <c r="W171" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB171" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC171" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD171" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE171" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF171" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG171" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH171" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI171" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8069,7 +8111,85 @@
       <c r="A172" t="s">
         <v>205</v>
       </c>
-      <c r="Y172" t="s">
+      <c r="B172" t="s">
+        <v>35</v>
+      </c>
+      <c r="D172" t="s">
+        <v>35</v>
+      </c>
+      <c r="E172" t="s">
+        <v>35</v>
+      </c>
+      <c r="F172" t="s">
+        <v>35</v>
+      </c>
+      <c r="G172" t="s">
+        <v>35</v>
+      </c>
+      <c r="H172" t="s">
+        <v>35</v>
+      </c>
+      <c r="I172" t="s">
+        <v>35</v>
+      </c>
+      <c r="K172" t="s">
+        <v>35</v>
+      </c>
+      <c r="L172" t="s">
+        <v>35</v>
+      </c>
+      <c r="M172" t="s">
+        <v>35</v>
+      </c>
+      <c r="N172" t="s">
+        <v>35</v>
+      </c>
+      <c r="O172" t="s">
+        <v>35</v>
+      </c>
+      <c r="P172" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>35</v>
+      </c>
+      <c r="R172" t="s">
+        <v>35</v>
+      </c>
+      <c r="S172" t="s">
+        <v>35</v>
+      </c>
+      <c r="U172" t="s">
+        <v>35</v>
+      </c>
+      <c r="V172" t="s">
+        <v>35</v>
+      </c>
+      <c r="W172" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB172" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC172" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD172" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE172" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF172" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG172" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH172" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI172" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8077,7 +8197,7 @@
       <c r="A173" t="s">
         <v>206</v>
       </c>
-      <c r="Y173" t="s">
+      <c r="J173" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8096,82 +8216,28 @@
       <c r="B175" t="s">
         <v>35</v>
       </c>
-      <c r="D175" t="s">
-        <v>35</v>
-      </c>
-      <c r="E175" t="s">
-        <v>35</v>
-      </c>
-      <c r="F175" t="s">
-        <v>35</v>
-      </c>
       <c r="G175" t="s">
         <v>35</v>
       </c>
       <c r="H175" t="s">
         <v>35</v>
       </c>
-      <c r="I175" t="s">
-        <v>35</v>
-      </c>
       <c r="K175" t="s">
         <v>35</v>
       </c>
-      <c r="L175" t="s">
-        <v>35</v>
-      </c>
-      <c r="M175" t="s">
-        <v>35</v>
-      </c>
       <c r="N175" t="s">
         <v>35</v>
       </c>
       <c r="O175" t="s">
         <v>35</v>
       </c>
-      <c r="P175" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q175" t="s">
-        <v>35</v>
-      </c>
-      <c r="R175" t="s">
-        <v>35</v>
-      </c>
-      <c r="S175" t="s">
-        <v>35</v>
-      </c>
       <c r="U175" t="s">
         <v>35</v>
       </c>
       <c r="V175" t="s">
         <v>35</v>
       </c>
-      <c r="W175" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB175" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC175" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD175" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE175" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF175" t="s">
-        <v>35</v>
-      </c>
       <c r="AG175" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH175" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI175" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8179,129 +8245,207 @@
       <c r="A176" t="s">
         <v>209</v>
       </c>
-      <c r="B176" t="s">
-        <v>35</v>
-      </c>
-      <c r="D176" t="s">
-        <v>35</v>
-      </c>
-      <c r="E176" t="s">
-        <v>35</v>
-      </c>
-      <c r="F176" t="s">
-        <v>35</v>
-      </c>
-      <c r="G176" t="s">
-        <v>35</v>
-      </c>
-      <c r="H176" t="s">
-        <v>35</v>
-      </c>
-      <c r="I176" t="s">
-        <v>35</v>
-      </c>
-      <c r="K176" t="s">
-        <v>35</v>
-      </c>
-      <c r="L176" t="s">
-        <v>35</v>
-      </c>
-      <c r="M176" t="s">
-        <v>35</v>
-      </c>
-      <c r="N176" t="s">
-        <v>35</v>
-      </c>
-      <c r="O176" t="s">
-        <v>35</v>
-      </c>
-      <c r="P176" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q176" t="s">
-        <v>35</v>
-      </c>
-      <c r="R176" t="s">
-        <v>35</v>
-      </c>
-      <c r="S176" t="s">
-        <v>35</v>
-      </c>
-      <c r="U176" t="s">
-        <v>35</v>
-      </c>
-      <c r="V176" t="s">
-        <v>35</v>
-      </c>
-      <c r="W176" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB176" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC176" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD176" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE176" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF176" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG176" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH176" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI176" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="177" spans="1:34">
+      <c r="X176" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="177" spans="1:35">
       <c r="A177" t="s">
         <v>210</v>
       </c>
-      <c r="Q177" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="178" spans="1:34">
+      <c r="Y177" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="178" spans="1:35">
       <c r="A178" t="s">
         <v>211</v>
       </c>
-      <c r="Q178" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="179" spans="1:34">
+      <c r="Y178" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="179" spans="1:35">
       <c r="A179" t="s">
         <v>212</v>
       </c>
-      <c r="Q179" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="180" spans="1:34">
+      <c r="X179" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="180" spans="1:35">
       <c r="A180" t="s">
         <v>213</v>
       </c>
+      <c r="B180" t="s">
+        <v>35</v>
+      </c>
+      <c r="D180" t="s">
+        <v>35</v>
+      </c>
+      <c r="E180" t="s">
+        <v>35</v>
+      </c>
+      <c r="F180" t="s">
+        <v>35</v>
+      </c>
+      <c r="G180" t="s">
+        <v>35</v>
+      </c>
+      <c r="H180" t="s">
+        <v>35</v>
+      </c>
+      <c r="I180" t="s">
+        <v>35</v>
+      </c>
+      <c r="K180" t="s">
+        <v>35</v>
+      </c>
+      <c r="L180" t="s">
+        <v>35</v>
+      </c>
+      <c r="M180" t="s">
+        <v>35</v>
+      </c>
+      <c r="N180" t="s">
+        <v>35</v>
+      </c>
+      <c r="O180" t="s">
+        <v>35</v>
+      </c>
+      <c r="P180" t="s">
+        <v>35</v>
+      </c>
       <c r="Q180" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="181" spans="1:34">
+      <c r="R180" t="s">
+        <v>35</v>
+      </c>
+      <c r="S180" t="s">
+        <v>35</v>
+      </c>
+      <c r="U180" t="s">
+        <v>35</v>
+      </c>
+      <c r="V180" t="s">
+        <v>35</v>
+      </c>
+      <c r="W180" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB180" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC180" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD180" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE180" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF180" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG180" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH180" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI180" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="181" spans="1:35">
       <c r="A181" t="s">
         <v>214</v>
       </c>
+      <c r="B181" t="s">
+        <v>35</v>
+      </c>
+      <c r="D181" t="s">
+        <v>35</v>
+      </c>
+      <c r="E181" t="s">
+        <v>35</v>
+      </c>
+      <c r="F181" t="s">
+        <v>35</v>
+      </c>
+      <c r="G181" t="s">
+        <v>35</v>
+      </c>
+      <c r="H181" t="s">
+        <v>35</v>
+      </c>
+      <c r="I181" t="s">
+        <v>35</v>
+      </c>
+      <c r="K181" t="s">
+        <v>35</v>
+      </c>
+      <c r="L181" t="s">
+        <v>35</v>
+      </c>
+      <c r="M181" t="s">
+        <v>35</v>
+      </c>
+      <c r="N181" t="s">
+        <v>35</v>
+      </c>
+      <c r="O181" t="s">
+        <v>35</v>
+      </c>
+      <c r="P181" t="s">
+        <v>35</v>
+      </c>
       <c r="Q181" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="182" spans="1:34">
+      <c r="R181" t="s">
+        <v>35</v>
+      </c>
+      <c r="S181" t="s">
+        <v>35</v>
+      </c>
+      <c r="U181" t="s">
+        <v>35</v>
+      </c>
+      <c r="V181" t="s">
+        <v>35</v>
+      </c>
+      <c r="W181" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB181" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC181" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD181" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE181" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF181" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG181" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH181" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI181" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="182" spans="1:35">
       <c r="A182" t="s">
         <v>215</v>
       </c>
@@ -8309,161 +8453,140 @@
         <v>35</v>
       </c>
     </row>
-    <row r="183" spans="1:34">
+    <row r="183" spans="1:35">
       <c r="A183" t="s">
         <v>216</v>
       </c>
-      <c r="D183" t="s">
-        <v>35</v>
-      </c>
-      <c r="R183" t="s">
-        <v>35</v>
-      </c>
-      <c r="S183" t="s">
-        <v>35</v>
-      </c>
-      <c r="W183" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH183" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="184" spans="1:34">
+      <c r="Q183" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="184" spans="1:35">
       <c r="A184" t="s">
         <v>217</v>
       </c>
-      <c r="D184" t="s">
-        <v>35</v>
-      </c>
-      <c r="R184" t="s">
-        <v>35</v>
-      </c>
-      <c r="S184" t="s">
-        <v>35</v>
-      </c>
-      <c r="W184" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH184" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="185" spans="1:34">
+      <c r="Q184" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="185" spans="1:35">
       <c r="A185" t="s">
         <v>218</v>
       </c>
-      <c r="H185" t="s">
-        <v>35</v>
-      </c>
-      <c r="K185" t="s">
-        <v>35</v>
-      </c>
-      <c r="N185" t="s">
-        <v>35</v>
-      </c>
-      <c r="O185" t="s">
-        <v>35</v>
-      </c>
-      <c r="V185" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="186" spans="1:34">
+      <c r="Q185" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="186" spans="1:35">
       <c r="A186" t="s">
         <v>219</v>
       </c>
-      <c r="Y186" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z186" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA186" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="187" spans="1:34">
+      <c r="Q186" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="187" spans="1:35">
       <c r="A187" t="s">
         <v>220</v>
       </c>
-      <c r="I187" t="s">
-        <v>35</v>
-      </c>
-      <c r="L187" t="s">
-        <v>35</v>
-      </c>
-      <c r="M187" t="s">
-        <v>35</v>
-      </c>
-      <c r="N187" t="s">
-        <v>35</v>
-      </c>
       <c r="Q187" t="s">
         <v>35</v>
       </c>
-      <c r="AE187" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="188" spans="1:34">
+    </row>
+    <row r="188" spans="1:35">
       <c r="A188" t="s">
         <v>221</v>
       </c>
-      <c r="I188" t="s">
-        <v>35</v>
-      </c>
-      <c r="L188" t="s">
-        <v>35</v>
-      </c>
-      <c r="M188" t="s">
-        <v>35</v>
-      </c>
-      <c r="N188" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q188" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE188" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="189" spans="1:34">
+      <c r="D188" t="s">
+        <v>35</v>
+      </c>
+      <c r="R188" t="s">
+        <v>35</v>
+      </c>
+      <c r="S188" t="s">
+        <v>35</v>
+      </c>
+      <c r="W188" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH188" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="189" spans="1:35">
       <c r="A189" t="s">
         <v>222</v>
       </c>
-      <c r="N189" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="190" spans="1:34">
+      <c r="D189" t="s">
+        <v>35</v>
+      </c>
+      <c r="R189" t="s">
+        <v>35</v>
+      </c>
+      <c r="S189" t="s">
+        <v>35</v>
+      </c>
+      <c r="W189" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH189" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="190" spans="1:35">
       <c r="A190" t="s">
         <v>223</v>
       </c>
-      <c r="Y190" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z190" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA190" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="191" spans="1:34">
+      <c r="H190" t="s">
+        <v>35</v>
+      </c>
+      <c r="K190" t="s">
+        <v>35</v>
+      </c>
+      <c r="N190" t="s">
+        <v>35</v>
+      </c>
+      <c r="O190" t="s">
+        <v>35</v>
+      </c>
+      <c r="V190" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="191" spans="1:35">
       <c r="A191" t="s">
         <v>224</v>
       </c>
-      <c r="N191" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="192" spans="1:34">
+      <c r="Y191" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z191" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA191" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="192" spans="1:35">
       <c r="A192" t="s">
         <v>225</v>
       </c>
+      <c r="I192" t="s">
+        <v>35</v>
+      </c>
+      <c r="L192" t="s">
+        <v>35</v>
+      </c>
+      <c r="M192" t="s">
+        <v>35</v>
+      </c>
+      <c r="N192" t="s">
+        <v>35</v>
+      </c>
       <c r="Q192" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE192" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8471,7 +8594,22 @@
       <c r="A193" t="s">
         <v>226</v>
       </c>
+      <c r="I193" t="s">
+        <v>35</v>
+      </c>
+      <c r="L193" t="s">
+        <v>35</v>
+      </c>
+      <c r="M193" t="s">
+        <v>35</v>
+      </c>
+      <c r="N193" t="s">
+        <v>35</v>
+      </c>
       <c r="Q193" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE193" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8479,7 +8617,7 @@
       <c r="A194" t="s">
         <v>227</v>
       </c>
-      <c r="Q194" t="s">
+      <c r="N194" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8487,7 +8625,13 @@
       <c r="A195" t="s">
         <v>228</v>
       </c>
-      <c r="AH195" t="s">
+      <c r="Y195" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z195" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA195" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8495,7 +8639,7 @@
       <c r="A196" t="s">
         <v>229</v>
       </c>
-      <c r="X196" t="s">
+      <c r="N196" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8503,19 +8647,7 @@
       <c r="A197" t="s">
         <v>230</v>
       </c>
-      <c r="G197" t="s">
-        <v>35</v>
-      </c>
-      <c r="H197" t="s">
-        <v>35</v>
-      </c>
-      <c r="N197" t="s">
-        <v>35</v>
-      </c>
-      <c r="O197" t="s">
-        <v>35</v>
-      </c>
-      <c r="V197" t="s">
+      <c r="Q197" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8523,13 +8655,7 @@
       <c r="A198" t="s">
         <v>231</v>
       </c>
-      <c r="H198" t="s">
-        <v>35</v>
-      </c>
-      <c r="K198" t="s">
-        <v>35</v>
-      </c>
-      <c r="O198" t="s">
+      <c r="Q198" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8537,13 +8663,7 @@
       <c r="A199" t="s">
         <v>232</v>
       </c>
-      <c r="Y199" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z199" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA199" t="s">
+      <c r="Q199" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8551,13 +8671,7 @@
       <c r="A200" t="s">
         <v>233</v>
       </c>
-      <c r="Y200" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z200" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA200" t="s">
+      <c r="AH200" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8565,85 +8679,7 @@
       <c r="A201" t="s">
         <v>234</v>
       </c>
-      <c r="B201" t="s">
-        <v>35</v>
-      </c>
-      <c r="D201" t="s">
-        <v>35</v>
-      </c>
-      <c r="E201" t="s">
-        <v>35</v>
-      </c>
-      <c r="F201" t="s">
-        <v>35</v>
-      </c>
-      <c r="G201" t="s">
-        <v>35</v>
-      </c>
-      <c r="H201" t="s">
-        <v>35</v>
-      </c>
-      <c r="I201" t="s">
-        <v>35</v>
-      </c>
-      <c r="K201" t="s">
-        <v>35</v>
-      </c>
-      <c r="L201" t="s">
-        <v>35</v>
-      </c>
-      <c r="M201" t="s">
-        <v>35</v>
-      </c>
-      <c r="N201" t="s">
-        <v>35</v>
-      </c>
-      <c r="O201" t="s">
-        <v>35</v>
-      </c>
-      <c r="P201" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q201" t="s">
-        <v>35</v>
-      </c>
-      <c r="R201" t="s">
-        <v>35</v>
-      </c>
-      <c r="S201" t="s">
-        <v>35</v>
-      </c>
-      <c r="U201" t="s">
-        <v>35</v>
-      </c>
-      <c r="V201" t="s">
-        <v>35</v>
-      </c>
-      <c r="W201" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB201" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC201" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD201" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE201" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF201" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG201" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH201" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI201" t="s">
+      <c r="X201" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8651,7 +8687,19 @@
       <c r="A202" t="s">
         <v>235</v>
       </c>
-      <c r="AF202" t="s">
+      <c r="G202" t="s">
+        <v>35</v>
+      </c>
+      <c r="H202" t="s">
+        <v>35</v>
+      </c>
+      <c r="N202" t="s">
+        <v>35</v>
+      </c>
+      <c r="O202" t="s">
+        <v>35</v>
+      </c>
+      <c r="V202" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8659,13 +8707,13 @@
       <c r="A203" t="s">
         <v>236</v>
       </c>
-      <c r="Y203" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z203" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA203" t="s">
+      <c r="H203" t="s">
+        <v>35</v>
+      </c>
+      <c r="K203" t="s">
+        <v>35</v>
+      </c>
+      <c r="O203" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8673,7 +8721,13 @@
       <c r="A204" t="s">
         <v>237</v>
       </c>
-      <c r="AH204" t="s">
+      <c r="Y204" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z204" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA204" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8681,7 +8735,13 @@
       <c r="A205" t="s">
         <v>238</v>
       </c>
-      <c r="T205" t="s">
+      <c r="Y205" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z205" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA205" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8689,7 +8749,85 @@
       <c r="A206" t="s">
         <v>239</v>
       </c>
+      <c r="B206" t="s">
+        <v>35</v>
+      </c>
+      <c r="D206" t="s">
+        <v>35</v>
+      </c>
+      <c r="E206" t="s">
+        <v>35</v>
+      </c>
+      <c r="F206" t="s">
+        <v>35</v>
+      </c>
+      <c r="G206" t="s">
+        <v>35</v>
+      </c>
+      <c r="H206" t="s">
+        <v>35</v>
+      </c>
+      <c r="I206" t="s">
+        <v>35</v>
+      </c>
+      <c r="K206" t="s">
+        <v>35</v>
+      </c>
+      <c r="L206" t="s">
+        <v>35</v>
+      </c>
+      <c r="M206" t="s">
+        <v>35</v>
+      </c>
+      <c r="N206" t="s">
+        <v>35</v>
+      </c>
+      <c r="O206" t="s">
+        <v>35</v>
+      </c>
       <c r="P206" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>35</v>
+      </c>
+      <c r="R206" t="s">
+        <v>35</v>
+      </c>
+      <c r="S206" t="s">
+        <v>35</v>
+      </c>
+      <c r="U206" t="s">
+        <v>35</v>
+      </c>
+      <c r="V206" t="s">
+        <v>35</v>
+      </c>
+      <c r="W206" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB206" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC206" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD206" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE206" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF206" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG206" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH206" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI206" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8697,7 +8835,7 @@
       <c r="A207" t="s">
         <v>240</v>
       </c>
-      <c r="P207" t="s">
+      <c r="AF207" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8705,22 +8843,13 @@
       <c r="A208" t="s">
         <v>241</v>
       </c>
-      <c r="I208" t="s">
-        <v>35</v>
-      </c>
-      <c r="L208" t="s">
-        <v>35</v>
-      </c>
-      <c r="M208" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q208" t="s">
-        <v>35</v>
-      </c>
-      <c r="U208" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE208" t="s">
+      <c r="Y208" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z208" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA208" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8728,7 +8857,7 @@
       <c r="A209" t="s">
         <v>242</v>
       </c>
-      <c r="S209" t="s">
+      <c r="AH209" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8736,58 +8865,7 @@
       <c r="A210" t="s">
         <v>243</v>
       </c>
-      <c r="B210" t="s">
-        <v>35</v>
-      </c>
-      <c r="D210" t="s">
-        <v>35</v>
-      </c>
-      <c r="G210" t="s">
-        <v>35</v>
-      </c>
-      <c r="H210" t="s">
-        <v>35</v>
-      </c>
-      <c r="I210" t="s">
-        <v>35</v>
-      </c>
-      <c r="K210" t="s">
-        <v>35</v>
-      </c>
-      <c r="N210" t="s">
-        <v>35</v>
-      </c>
-      <c r="O210" t="s">
-        <v>35</v>
-      </c>
-      <c r="P210" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q210" t="s">
-        <v>35</v>
-      </c>
-      <c r="R210" t="s">
-        <v>35</v>
-      </c>
-      <c r="S210" t="s">
-        <v>35</v>
-      </c>
-      <c r="U210" t="s">
-        <v>35</v>
-      </c>
-      <c r="V210" t="s">
-        <v>35</v>
-      </c>
-      <c r="W210" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE210" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG210" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH210" t="s">
+      <c r="T210" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8795,58 +8873,7 @@
       <c r="A211" t="s">
         <v>244</v>
       </c>
-      <c r="B211" t="s">
-        <v>35</v>
-      </c>
-      <c r="D211" t="s">
-        <v>35</v>
-      </c>
-      <c r="G211" t="s">
-        <v>35</v>
-      </c>
-      <c r="H211" t="s">
-        <v>35</v>
-      </c>
-      <c r="I211" t="s">
-        <v>35</v>
-      </c>
-      <c r="K211" t="s">
-        <v>35</v>
-      </c>
-      <c r="N211" t="s">
-        <v>35</v>
-      </c>
-      <c r="O211" t="s">
-        <v>35</v>
-      </c>
       <c r="P211" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q211" t="s">
-        <v>35</v>
-      </c>
-      <c r="R211" t="s">
-        <v>35</v>
-      </c>
-      <c r="S211" t="s">
-        <v>35</v>
-      </c>
-      <c r="U211" t="s">
-        <v>35</v>
-      </c>
-      <c r="V211" t="s">
-        <v>35</v>
-      </c>
-      <c r="W211" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE211" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG211" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH211" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8854,58 +8881,7 @@
       <c r="A212" t="s">
         <v>245</v>
       </c>
-      <c r="B212" t="s">
-        <v>35</v>
-      </c>
-      <c r="D212" t="s">
-        <v>35</v>
-      </c>
-      <c r="G212" t="s">
-        <v>35</v>
-      </c>
-      <c r="H212" t="s">
-        <v>35</v>
-      </c>
-      <c r="I212" t="s">
-        <v>35</v>
-      </c>
-      <c r="K212" t="s">
-        <v>35</v>
-      </c>
-      <c r="N212" t="s">
-        <v>35</v>
-      </c>
-      <c r="O212" t="s">
-        <v>35</v>
-      </c>
       <c r="P212" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q212" t="s">
-        <v>35</v>
-      </c>
-      <c r="R212" t="s">
-        <v>35</v>
-      </c>
-      <c r="S212" t="s">
-        <v>35</v>
-      </c>
-      <c r="U212" t="s">
-        <v>35</v>
-      </c>
-      <c r="V212" t="s">
-        <v>35</v>
-      </c>
-      <c r="W212" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE212" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG212" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH212" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8913,58 +8889,22 @@
       <c r="A213" t="s">
         <v>246</v>
       </c>
-      <c r="B213" t="s">
-        <v>35</v>
-      </c>
-      <c r="D213" t="s">
-        <v>35</v>
-      </c>
-      <c r="G213" t="s">
-        <v>35</v>
-      </c>
-      <c r="H213" t="s">
-        <v>35</v>
-      </c>
       <c r="I213" t="s">
         <v>35</v>
       </c>
-      <c r="K213" t="s">
-        <v>35</v>
-      </c>
-      <c r="N213" t="s">
-        <v>35</v>
-      </c>
-      <c r="O213" t="s">
-        <v>35</v>
-      </c>
-      <c r="P213" t="s">
+      <c r="L213" t="s">
+        <v>35</v>
+      </c>
+      <c r="M213" t="s">
         <v>35</v>
       </c>
       <c r="Q213" t="s">
         <v>35</v>
       </c>
-      <c r="R213" t="s">
-        <v>35</v>
-      </c>
-      <c r="S213" t="s">
-        <v>35</v>
-      </c>
       <c r="U213" t="s">
         <v>35</v>
       </c>
-      <c r="V213" t="s">
-        <v>35</v>
-      </c>
-      <c r="W213" t="s">
-        <v>35</v>
-      </c>
       <c r="AE213" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG213" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH213" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8972,34 +8912,7 @@
       <c r="A214" t="s">
         <v>247</v>
       </c>
-      <c r="B214" t="s">
-        <v>35</v>
-      </c>
-      <c r="D214" t="s">
-        <v>35</v>
-      </c>
-      <c r="I214" t="s">
-        <v>35</v>
-      </c>
-      <c r="P214" t="s">
-        <v>35</v>
-      </c>
-      <c r="R214" t="s">
-        <v>35</v>
-      </c>
       <c r="S214" t="s">
-        <v>35</v>
-      </c>
-      <c r="W214" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE214" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG214" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH214" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9013,16 +8926,40 @@
       <c r="D215" t="s">
         <v>35</v>
       </c>
+      <c r="G215" t="s">
+        <v>35</v>
+      </c>
+      <c r="H215" t="s">
+        <v>35</v>
+      </c>
       <c r="I215" t="s">
         <v>35</v>
       </c>
+      <c r="K215" t="s">
+        <v>35</v>
+      </c>
+      <c r="N215" t="s">
+        <v>35</v>
+      </c>
+      <c r="O215" t="s">
+        <v>35</v>
+      </c>
       <c r="P215" t="s">
         <v>35</v>
       </c>
+      <c r="Q215" t="s">
+        <v>35</v>
+      </c>
       <c r="R215" t="s">
         <v>35</v>
       </c>
       <c r="S215" t="s">
+        <v>35</v>
+      </c>
+      <c r="U215" t="s">
+        <v>35</v>
+      </c>
+      <c r="V215" t="s">
         <v>35</v>
       </c>
       <c r="W215" t="s">
@@ -9042,10 +8979,58 @@
       <c r="A216" t="s">
         <v>249</v>
       </c>
-      <c r="AC216" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD216" t="s">
+      <c r="B216" t="s">
+        <v>35</v>
+      </c>
+      <c r="D216" t="s">
+        <v>35</v>
+      </c>
+      <c r="G216" t="s">
+        <v>35</v>
+      </c>
+      <c r="H216" t="s">
+        <v>35</v>
+      </c>
+      <c r="I216" t="s">
+        <v>35</v>
+      </c>
+      <c r="K216" t="s">
+        <v>35</v>
+      </c>
+      <c r="N216" t="s">
+        <v>35</v>
+      </c>
+      <c r="O216" t="s">
+        <v>35</v>
+      </c>
+      <c r="P216" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>35</v>
+      </c>
+      <c r="R216" t="s">
+        <v>35</v>
+      </c>
+      <c r="S216" t="s">
+        <v>35</v>
+      </c>
+      <c r="U216" t="s">
+        <v>35</v>
+      </c>
+      <c r="V216" t="s">
+        <v>35</v>
+      </c>
+      <c r="W216" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE216" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG216" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH216" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9053,7 +9038,58 @@
       <c r="A217" t="s">
         <v>250</v>
       </c>
-      <c r="F217" t="s">
+      <c r="B217" t="s">
+        <v>35</v>
+      </c>
+      <c r="D217" t="s">
+        <v>35</v>
+      </c>
+      <c r="G217" t="s">
+        <v>35</v>
+      </c>
+      <c r="H217" t="s">
+        <v>35</v>
+      </c>
+      <c r="I217" t="s">
+        <v>35</v>
+      </c>
+      <c r="K217" t="s">
+        <v>35</v>
+      </c>
+      <c r="N217" t="s">
+        <v>35</v>
+      </c>
+      <c r="O217" t="s">
+        <v>35</v>
+      </c>
+      <c r="P217" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>35</v>
+      </c>
+      <c r="R217" t="s">
+        <v>35</v>
+      </c>
+      <c r="S217" t="s">
+        <v>35</v>
+      </c>
+      <c r="U217" t="s">
+        <v>35</v>
+      </c>
+      <c r="V217" t="s">
+        <v>35</v>
+      </c>
+      <c r="W217" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE217" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG217" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH217" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9061,7 +9097,58 @@
       <c r="A218" t="s">
         <v>251</v>
       </c>
-      <c r="F218" t="s">
+      <c r="B218" t="s">
+        <v>35</v>
+      </c>
+      <c r="D218" t="s">
+        <v>35</v>
+      </c>
+      <c r="G218" t="s">
+        <v>35</v>
+      </c>
+      <c r="H218" t="s">
+        <v>35</v>
+      </c>
+      <c r="I218" t="s">
+        <v>35</v>
+      </c>
+      <c r="K218" t="s">
+        <v>35</v>
+      </c>
+      <c r="N218" t="s">
+        <v>35</v>
+      </c>
+      <c r="O218" t="s">
+        <v>35</v>
+      </c>
+      <c r="P218" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>35</v>
+      </c>
+      <c r="R218" t="s">
+        <v>35</v>
+      </c>
+      <c r="S218" t="s">
+        <v>35</v>
+      </c>
+      <c r="U218" t="s">
+        <v>35</v>
+      </c>
+      <c r="V218" t="s">
+        <v>35</v>
+      </c>
+      <c r="W218" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE218" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG218" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH218" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9069,16 +9156,34 @@
       <c r="A219" t="s">
         <v>252</v>
       </c>
-      <c r="F219" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC219" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD219" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF219" t="s">
+      <c r="B219" t="s">
+        <v>35</v>
+      </c>
+      <c r="D219" t="s">
+        <v>35</v>
+      </c>
+      <c r="I219" t="s">
+        <v>35</v>
+      </c>
+      <c r="P219" t="s">
+        <v>35</v>
+      </c>
+      <c r="R219" t="s">
+        <v>35</v>
+      </c>
+      <c r="S219" t="s">
+        <v>35</v>
+      </c>
+      <c r="W219" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE219" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG219" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH219" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9086,16 +9191,16 @@
       <c r="A220" t="s">
         <v>253</v>
       </c>
+      <c r="B220" t="s">
+        <v>35</v>
+      </c>
       <c r="D220" t="s">
         <v>35</v>
       </c>
-      <c r="L220" t="s">
-        <v>35</v>
-      </c>
-      <c r="M220" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q220" t="s">
+      <c r="I220" t="s">
+        <v>35</v>
+      </c>
+      <c r="P220" t="s">
         <v>35</v>
       </c>
       <c r="R220" t="s">
@@ -9105,6 +9210,12 @@
         <v>35</v>
       </c>
       <c r="W220" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE220" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG220" t="s">
         <v>35</v>
       </c>
       <c r="AH220" t="s">
@@ -9115,28 +9226,10 @@
       <c r="A221" t="s">
         <v>254</v>
       </c>
-      <c r="D221" t="s">
-        <v>35</v>
-      </c>
-      <c r="L221" t="s">
-        <v>35</v>
-      </c>
-      <c r="M221" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q221" t="s">
-        <v>35</v>
-      </c>
-      <c r="R221" t="s">
-        <v>35</v>
-      </c>
-      <c r="S221" t="s">
-        <v>35</v>
-      </c>
-      <c r="W221" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH221" t="s">
+      <c r="AC221" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD221" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9144,7 +9237,7 @@
       <c r="A222" t="s">
         <v>255</v>
       </c>
-      <c r="T222" t="s">
+      <c r="F222" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9152,7 +9245,7 @@
       <c r="A223" t="s">
         <v>256</v>
       </c>
-      <c r="T223" t="s">
+      <c r="F223" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9160,106 +9253,127 @@
       <c r="A224" t="s">
         <v>257</v>
       </c>
-      <c r="C224" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="225" spans="1:35">
+      <c r="F224" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC224" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD224" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF224" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="225" spans="1:34">
       <c r="A225" t="s">
         <v>258</v>
       </c>
-      <c r="X225" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y225" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z225" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA225" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="226" spans="1:35">
+      <c r="D225" t="s">
+        <v>35</v>
+      </c>
+      <c r="L225" t="s">
+        <v>35</v>
+      </c>
+      <c r="M225" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>35</v>
+      </c>
+      <c r="R225" t="s">
+        <v>35</v>
+      </c>
+      <c r="S225" t="s">
+        <v>35</v>
+      </c>
+      <c r="W225" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH225" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="226" spans="1:34">
       <c r="A226" t="s">
         <v>259</v>
       </c>
-      <c r="E226" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="227" spans="1:35">
+      <c r="D226" t="s">
+        <v>35</v>
+      </c>
+      <c r="L226" t="s">
+        <v>35</v>
+      </c>
+      <c r="M226" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>35</v>
+      </c>
+      <c r="R226" t="s">
+        <v>35</v>
+      </c>
+      <c r="S226" t="s">
+        <v>35</v>
+      </c>
+      <c r="W226" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH226" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="227" spans="1:34">
       <c r="A227" t="s">
         <v>260</v>
       </c>
-      <c r="AB227" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC227" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD227" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="228" spans="1:35">
+      <c r="T227" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="228" spans="1:34">
       <c r="A228" t="s">
         <v>261</v>
       </c>
-      <c r="AB228" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC228" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD228" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="229" spans="1:35">
+      <c r="T228" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="229" spans="1:34">
       <c r="A229" t="s">
         <v>262</v>
       </c>
-      <c r="AB229" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC229" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD229" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="230" spans="1:35">
+      <c r="C229" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="230" spans="1:34">
       <c r="A230" t="s">
         <v>263</v>
       </c>
-      <c r="AB230" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC230" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD230" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="231" spans="1:35">
+      <c r="X230" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y230" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z230" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA230" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="231" spans="1:34">
       <c r="A231" t="s">
         <v>264</v>
       </c>
-      <c r="AB231" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC231" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD231" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="232" spans="1:35">
+      <c r="E231" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="232" spans="1:34">
       <c r="A232" t="s">
         <v>265</v>
       </c>
@@ -9273,121 +9387,127 @@
         <v>35</v>
       </c>
     </row>
-    <row r="233" spans="1:35">
+    <row r="233" spans="1:34">
       <c r="A233" t="s">
         <v>266</v>
       </c>
-      <c r="S233" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="234" spans="1:35">
+      <c r="AB233" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC233" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD233" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="234" spans="1:34">
       <c r="A234" t="s">
         <v>267</v>
       </c>
-      <c r="Z234" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="235" spans="1:35">
+      <c r="AB234" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC234" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD234" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="235" spans="1:34">
       <c r="A235" t="s">
         <v>268</v>
       </c>
-      <c r="H235" t="s">
-        <v>35</v>
-      </c>
-      <c r="I235" t="s">
-        <v>35</v>
-      </c>
-      <c r="K235" t="s">
-        <v>35</v>
-      </c>
-      <c r="L235" t="s">
-        <v>35</v>
-      </c>
-      <c r="M235" t="s">
-        <v>35</v>
-      </c>
-      <c r="N235" t="s">
-        <v>35</v>
-      </c>
-      <c r="O235" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q235" t="s">
-        <v>35</v>
-      </c>
-      <c r="U235" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE235" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG235" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="236" spans="1:35">
+      <c r="AB235" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC235" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD235" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="236" spans="1:34">
       <c r="A236" t="s">
         <v>269</v>
       </c>
-      <c r="Z236" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="237" spans="1:35">
+      <c r="AB236" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC236" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD236" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="237" spans="1:34">
       <c r="A237" t="s">
         <v>270</v>
       </c>
-      <c r="Z237" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="238" spans="1:35">
+      <c r="AB237" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC237" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD237" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="238" spans="1:34">
       <c r="A238" t="s">
         <v>271</v>
       </c>
-      <c r="L238" t="s">
-        <v>35</v>
-      </c>
-      <c r="M238" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q238" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="239" spans="1:35">
+      <c r="S238" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="239" spans="1:34">
       <c r="A239" t="s">
         <v>272</v>
       </c>
-      <c r="S239" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="240" spans="1:35">
+      <c r="Z239" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="240" spans="1:34">
       <c r="A240" t="s">
         <v>273</v>
       </c>
-      <c r="E240" t="s">
-        <v>35</v>
-      </c>
-      <c r="F240" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB240" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC240" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD240" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF240" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI240" t="s">
+      <c r="H240" t="s">
+        <v>35</v>
+      </c>
+      <c r="I240" t="s">
+        <v>35</v>
+      </c>
+      <c r="K240" t="s">
+        <v>35</v>
+      </c>
+      <c r="L240" t="s">
+        <v>35</v>
+      </c>
+      <c r="M240" t="s">
+        <v>35</v>
+      </c>
+      <c r="N240" t="s">
+        <v>35</v>
+      </c>
+      <c r="O240" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q240" t="s">
+        <v>35</v>
+      </c>
+      <c r="U240" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE240" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG240" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9395,25 +9515,7 @@
       <c r="A241" t="s">
         <v>274</v>
       </c>
-      <c r="E241" t="s">
-        <v>35</v>
-      </c>
-      <c r="F241" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB241" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC241" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD241" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF241" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI241" t="s">
+      <c r="Z241" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9421,25 +9523,7 @@
       <c r="A242" t="s">
         <v>275</v>
       </c>
-      <c r="E242" t="s">
-        <v>35</v>
-      </c>
-      <c r="F242" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB242" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC242" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD242" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF242" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI242" t="s">
+      <c r="Z242" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9447,25 +9531,13 @@
       <c r="A243" t="s">
         <v>276</v>
       </c>
-      <c r="E243" t="s">
-        <v>35</v>
-      </c>
-      <c r="F243" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB243" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC243" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD243" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF243" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI243" t="s">
+      <c r="L243" t="s">
+        <v>35</v>
+      </c>
+      <c r="M243" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q243" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9473,13 +9545,7 @@
       <c r="A244" t="s">
         <v>277</v>
       </c>
-      <c r="L244" t="s">
-        <v>35</v>
-      </c>
-      <c r="M244" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q244" t="s">
+      <c r="S244" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9487,19 +9553,25 @@
       <c r="A245" t="s">
         <v>278</v>
       </c>
-      <c r="D245" t="s">
-        <v>35</v>
-      </c>
-      <c r="R245" t="s">
-        <v>35</v>
-      </c>
-      <c r="S245" t="s">
-        <v>35</v>
-      </c>
-      <c r="W245" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH245" t="s">
+      <c r="E245" t="s">
+        <v>35</v>
+      </c>
+      <c r="F245" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB245" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC245" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD245" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF245" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI245" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9507,7 +9579,25 @@
       <c r="A246" t="s">
         <v>279</v>
       </c>
-      <c r="W246" t="s">
+      <c r="E246" t="s">
+        <v>35</v>
+      </c>
+      <c r="F246" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB246" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC246" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD246" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF246" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI246" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9515,7 +9605,25 @@
       <c r="A247" t="s">
         <v>280</v>
       </c>
-      <c r="W247" t="s">
+      <c r="E247" t="s">
+        <v>35</v>
+      </c>
+      <c r="F247" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB247" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC247" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD247" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF247" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI247" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9523,7 +9631,25 @@
       <c r="A248" t="s">
         <v>281</v>
       </c>
+      <c r="E248" t="s">
+        <v>35</v>
+      </c>
+      <c r="F248" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB248" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC248" t="s">
+        <v>35</v>
+      </c>
       <c r="AD248" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF248" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI248" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9531,13 +9657,7 @@
       <c r="A249" t="s">
         <v>282</v>
       </c>
-      <c r="Y249" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z249" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA249" t="s">
+      <c r="T249" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9545,13 +9665,13 @@
       <c r="A250" t="s">
         <v>283</v>
       </c>
-      <c r="Y250" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z250" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA250" t="s">
+      <c r="L250" t="s">
+        <v>35</v>
+      </c>
+      <c r="M250" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q250" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9559,13 +9679,19 @@
       <c r="A251" t="s">
         <v>284</v>
       </c>
-      <c r="H251" t="s">
-        <v>35</v>
-      </c>
-      <c r="K251" t="s">
-        <v>35</v>
-      </c>
-      <c r="O251" t="s">
+      <c r="D251" t="s">
+        <v>35</v>
+      </c>
+      <c r="R251" t="s">
+        <v>35</v>
+      </c>
+      <c r="S251" t="s">
+        <v>35</v>
+      </c>
+      <c r="W251" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH251" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9573,13 +9699,7 @@
       <c r="A252" t="s">
         <v>285</v>
       </c>
-      <c r="H252" t="s">
-        <v>35</v>
-      </c>
-      <c r="K252" t="s">
-        <v>35</v>
-      </c>
-      <c r="O252" t="s">
+      <c r="W252" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9587,13 +9707,7 @@
       <c r="A253" t="s">
         <v>286</v>
       </c>
-      <c r="H253" t="s">
-        <v>35</v>
-      </c>
-      <c r="K253" t="s">
-        <v>35</v>
-      </c>
-      <c r="O253" t="s">
+      <c r="W253" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9601,7 +9715,7 @@
       <c r="A254" t="s">
         <v>287</v>
       </c>
-      <c r="X254" t="s">
+      <c r="T254" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9609,7 +9723,7 @@
       <c r="A255" t="s">
         <v>288</v>
       </c>
-      <c r="X255" t="s">
+      <c r="AD255" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9617,237 +9731,180 @@
       <c r="A256" t="s">
         <v>289</v>
       </c>
-      <c r="X256" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="257" spans="1:35">
+      <c r="Y256" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z256" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA256" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="257" spans="1:34">
       <c r="A257" t="s">
         <v>290</v>
       </c>
-      <c r="X257" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="258" spans="1:35">
+      <c r="Y257" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z257" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA257" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="258" spans="1:34">
       <c r="A258" t="s">
         <v>291</v>
       </c>
-      <c r="AH258" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="259" spans="1:35">
+      <c r="H258" t="s">
+        <v>35</v>
+      </c>
+      <c r="K258" t="s">
+        <v>35</v>
+      </c>
+      <c r="O258" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="259" spans="1:34">
       <c r="A259" t="s">
         <v>292</v>
       </c>
-      <c r="AG259" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="260" spans="1:35">
+      <c r="H259" t="s">
+        <v>35</v>
+      </c>
+      <c r="K259" t="s">
+        <v>35</v>
+      </c>
+      <c r="O259" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="260" spans="1:34">
       <c r="A260" t="s">
         <v>293</v>
       </c>
-      <c r="L260" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q260" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="261" spans="1:35">
+      <c r="H260" t="s">
+        <v>35</v>
+      </c>
+      <c r="K260" t="s">
+        <v>35</v>
+      </c>
+      <c r="O260" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="261" spans="1:34">
       <c r="A261" t="s">
         <v>294</v>
       </c>
-      <c r="P261" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="262" spans="1:35">
+      <c r="X261" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="262" spans="1:34">
       <c r="A262" t="s">
         <v>295</v>
       </c>
-      <c r="Y262" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z262" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA262" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="263" spans="1:35">
+      <c r="X262" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="263" spans="1:34">
       <c r="A263" t="s">
         <v>296</v>
       </c>
-      <c r="Y263" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z263" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA263" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="264" spans="1:35">
+      <c r="X263" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="264" spans="1:34">
       <c r="A264" t="s">
         <v>297</v>
       </c>
-      <c r="AA264" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="265" spans="1:35">
+      <c r="X264" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="265" spans="1:34">
       <c r="A265" t="s">
         <v>298</v>
       </c>
-      <c r="AA265" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="266" spans="1:35">
+      <c r="AH265" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="266" spans="1:34">
       <c r="A266" t="s">
         <v>299</v>
       </c>
-      <c r="AA266" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="267" spans="1:35">
+      <c r="AG266" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="267" spans="1:34">
       <c r="A267" t="s">
         <v>300</v>
       </c>
-      <c r="AA267" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="268" spans="1:35">
+      <c r="L267" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q267" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="268" spans="1:34">
       <c r="A268" t="s">
         <v>301</v>
       </c>
-      <c r="B268" t="s">
-        <v>35</v>
-      </c>
-      <c r="D268" t="s">
-        <v>35</v>
-      </c>
-      <c r="E268" t="s">
-        <v>35</v>
-      </c>
-      <c r="F268" t="s">
-        <v>35</v>
-      </c>
-      <c r="G268" t="s">
-        <v>35</v>
-      </c>
-      <c r="H268" t="s">
-        <v>35</v>
-      </c>
-      <c r="I268" t="s">
-        <v>35</v>
-      </c>
-      <c r="K268" t="s">
-        <v>35</v>
-      </c>
-      <c r="L268" t="s">
-        <v>35</v>
-      </c>
-      <c r="M268" t="s">
-        <v>35</v>
-      </c>
-      <c r="N268" t="s">
-        <v>35</v>
-      </c>
-      <c r="O268" t="s">
-        <v>35</v>
-      </c>
       <c r="P268" t="s">
         <v>35</v>
       </c>
-      <c r="Q268" t="s">
-        <v>35</v>
-      </c>
-      <c r="R268" t="s">
-        <v>35</v>
-      </c>
-      <c r="S268" t="s">
-        <v>35</v>
-      </c>
-      <c r="U268" t="s">
-        <v>35</v>
-      </c>
-      <c r="V268" t="s">
-        <v>35</v>
-      </c>
-      <c r="W268" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB268" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC268" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD268" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE268" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF268" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG268" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH268" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI268" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="269" spans="1:35">
+    </row>
+    <row r="269" spans="1:34">
       <c r="A269" t="s">
         <v>302</v>
       </c>
-      <c r="R269" t="s">
-        <v>35</v>
-      </c>
-      <c r="W269" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="270" spans="1:35">
+      <c r="Y269" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z269" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA269" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="270" spans="1:34">
       <c r="A270" t="s">
         <v>303</v>
       </c>
-      <c r="AB270" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="271" spans="1:35">
+      <c r="Y270" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z270" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA270" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="271" spans="1:34">
       <c r="A271" t="s">
         <v>304</v>
       </c>
-      <c r="E271" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB271" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="272" spans="1:35">
+      <c r="T271" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="272" spans="1:34">
       <c r="A272" t="s">
         <v>305</v>
       </c>
-      <c r="E272" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB272" t="s">
+      <c r="T272" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9855,10 +9912,7 @@
       <c r="A273" t="s">
         <v>306</v>
       </c>
-      <c r="E273" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB273" t="s">
+      <c r="AA273" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9866,12 +9920,6 @@
       <c r="A274" t="s">
         <v>307</v>
       </c>
-      <c r="Y274" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z274" t="s">
-        <v>35</v>
-      </c>
       <c r="AA274" t="s">
         <v>35</v>
       </c>
@@ -9880,7 +9928,7 @@
       <c r="A275" t="s">
         <v>308</v>
       </c>
-      <c r="AC275" t="s">
+      <c r="AA275" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9888,7 +9936,7 @@
       <c r="A276" t="s">
         <v>309</v>
       </c>
-      <c r="AC276" t="s">
+      <c r="AA276" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9896,7 +9944,85 @@
       <c r="A277" t="s">
         <v>310</v>
       </c>
+      <c r="B277" t="s">
+        <v>35</v>
+      </c>
+      <c r="D277" t="s">
+        <v>35</v>
+      </c>
+      <c r="E277" t="s">
+        <v>35</v>
+      </c>
+      <c r="F277" t="s">
+        <v>35</v>
+      </c>
+      <c r="G277" t="s">
+        <v>35</v>
+      </c>
+      <c r="H277" t="s">
+        <v>35</v>
+      </c>
+      <c r="I277" t="s">
+        <v>35</v>
+      </c>
+      <c r="K277" t="s">
+        <v>35</v>
+      </c>
+      <c r="L277" t="s">
+        <v>35</v>
+      </c>
+      <c r="M277" t="s">
+        <v>35</v>
+      </c>
+      <c r="N277" t="s">
+        <v>35</v>
+      </c>
+      <c r="O277" t="s">
+        <v>35</v>
+      </c>
+      <c r="P277" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q277" t="s">
+        <v>35</v>
+      </c>
+      <c r="R277" t="s">
+        <v>35</v>
+      </c>
+      <c r="S277" t="s">
+        <v>35</v>
+      </c>
+      <c r="U277" t="s">
+        <v>35</v>
+      </c>
+      <c r="V277" t="s">
+        <v>35</v>
+      </c>
+      <c r="W277" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB277" t="s">
+        <v>35</v>
+      </c>
       <c r="AC277" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD277" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE277" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF277" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG277" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH277" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI277" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9904,7 +10030,10 @@
       <c r="A278" t="s">
         <v>311</v>
       </c>
-      <c r="C278" t="s">
+      <c r="R278" t="s">
+        <v>35</v>
+      </c>
+      <c r="W278" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9912,97 +10041,7 @@
       <c r="A279" t="s">
         <v>312</v>
       </c>
-      <c r="B279" t="s">
-        <v>35</v>
-      </c>
-      <c r="C279" t="s">
-        <v>35</v>
-      </c>
-      <c r="D279" t="s">
-        <v>35</v>
-      </c>
-      <c r="E279" t="s">
-        <v>35</v>
-      </c>
-      <c r="F279" t="s">
-        <v>35</v>
-      </c>
-      <c r="G279" t="s">
-        <v>35</v>
-      </c>
-      <c r="H279" t="s">
-        <v>35</v>
-      </c>
-      <c r="I279" t="s">
-        <v>35</v>
-      </c>
-      <c r="J279" t="s">
-        <v>35</v>
-      </c>
-      <c r="K279" t="s">
-        <v>35</v>
-      </c>
-      <c r="L279" t="s">
-        <v>35</v>
-      </c>
-      <c r="M279" t="s">
-        <v>35</v>
-      </c>
-      <c r="N279" t="s">
-        <v>35</v>
-      </c>
-      <c r="O279" t="s">
-        <v>35</v>
-      </c>
-      <c r="P279" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q279" t="s">
-        <v>35</v>
-      </c>
-      <c r="R279" t="s">
-        <v>35</v>
-      </c>
-      <c r="S279" t="s">
-        <v>35</v>
-      </c>
-      <c r="U279" t="s">
-        <v>35</v>
-      </c>
-      <c r="V279" t="s">
-        <v>35</v>
-      </c>
-      <c r="W279" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y279" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z279" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA279" t="s">
-        <v>35</v>
-      </c>
       <c r="AB279" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC279" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE279" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF279" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG279" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH279" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI279" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10010,7 +10049,10 @@
       <c r="A280" t="s">
         <v>313</v>
       </c>
-      <c r="X280" t="s">
+      <c r="E280" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB280" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10018,7 +10060,10 @@
       <c r="A281" t="s">
         <v>314</v>
       </c>
-      <c r="R281" t="s">
+      <c r="E281" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB281" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10026,7 +10071,10 @@
       <c r="A282" t="s">
         <v>315</v>
       </c>
-      <c r="R282" t="s">
+      <c r="E282" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB282" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10034,7 +10082,13 @@
       <c r="A283" t="s">
         <v>316</v>
       </c>
-      <c r="W283" t="s">
+      <c r="Y283" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z283" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA283" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10042,7 +10096,7 @@
       <c r="A284" t="s">
         <v>317</v>
       </c>
-      <c r="Y284" t="s">
+      <c r="AC284" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10050,7 +10104,7 @@
       <c r="A285" t="s">
         <v>318</v>
       </c>
-      <c r="Y285" t="s">
+      <c r="AC285" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10058,7 +10112,7 @@
       <c r="A286" t="s">
         <v>319</v>
       </c>
-      <c r="X286" t="s">
+      <c r="AC286" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10066,7 +10120,7 @@
       <c r="A287" t="s">
         <v>320</v>
       </c>
-      <c r="X287" t="s">
+      <c r="C287" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10074,7 +10128,97 @@
       <c r="A288" t="s">
         <v>321</v>
       </c>
-      <c r="T288" t="s">
+      <c r="B288" t="s">
+        <v>35</v>
+      </c>
+      <c r="C288" t="s">
+        <v>35</v>
+      </c>
+      <c r="D288" t="s">
+        <v>35</v>
+      </c>
+      <c r="E288" t="s">
+        <v>35</v>
+      </c>
+      <c r="F288" t="s">
+        <v>35</v>
+      </c>
+      <c r="G288" t="s">
+        <v>35</v>
+      </c>
+      <c r="H288" t="s">
+        <v>35</v>
+      </c>
+      <c r="I288" t="s">
+        <v>35</v>
+      </c>
+      <c r="J288" t="s">
+        <v>35</v>
+      </c>
+      <c r="K288" t="s">
+        <v>35</v>
+      </c>
+      <c r="L288" t="s">
+        <v>35</v>
+      </c>
+      <c r="M288" t="s">
+        <v>35</v>
+      </c>
+      <c r="N288" t="s">
+        <v>35</v>
+      </c>
+      <c r="O288" t="s">
+        <v>35</v>
+      </c>
+      <c r="P288" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q288" t="s">
+        <v>35</v>
+      </c>
+      <c r="R288" t="s">
+        <v>35</v>
+      </c>
+      <c r="S288" t="s">
+        <v>35</v>
+      </c>
+      <c r="U288" t="s">
+        <v>35</v>
+      </c>
+      <c r="V288" t="s">
+        <v>35</v>
+      </c>
+      <c r="W288" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y288" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z288" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA288" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB288" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC288" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE288" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF288" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG288" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH288" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI288" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10082,7 +10226,7 @@
       <c r="A289" t="s">
         <v>322</v>
       </c>
-      <c r="W289" t="s">
+      <c r="X289" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10090,7 +10234,7 @@
       <c r="A290" t="s">
         <v>323</v>
       </c>
-      <c r="W290" t="s">
+      <c r="R290" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10098,7 +10242,7 @@
       <c r="A291" t="s">
         <v>324</v>
       </c>
-      <c r="Y291" t="s">
+      <c r="R291" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10106,7 +10250,79 @@
       <c r="A292" t="s">
         <v>325</v>
       </c>
-      <c r="Y292" t="s">
+      <c r="W292" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="293" spans="1:25">
+      <c r="A293" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y293" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="294" spans="1:25">
+      <c r="A294" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y294" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="295" spans="1:25">
+      <c r="A295" t="s">
+        <v>328</v>
+      </c>
+      <c r="X295" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="296" spans="1:25">
+      <c r="A296" t="s">
+        <v>329</v>
+      </c>
+      <c r="X296" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="297" spans="1:25">
+      <c r="A297" t="s">
+        <v>330</v>
+      </c>
+      <c r="T297" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="298" spans="1:25">
+      <c r="A298" t="s">
+        <v>331</v>
+      </c>
+      <c r="W298" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="299" spans="1:25">
+      <c r="A299" t="s">
+        <v>332</v>
+      </c>
+      <c r="W299" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="300" spans="1:25">
+      <c r="A300" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y300" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="301" spans="1:25">
+      <c r="A301" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y301" t="s">
         <v>35</v>
       </c>
     </row>
